--- a/Data/The productivity of the ports/Container-Port-Performance-Index-2021 copy.xlsx
+++ b/Data/The productivity of the ports/Container-Port-Performance-Index-2021 copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\TIL6022-group_project\Data\The productivity of the ports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4331838F-A6F2-4315-9FB0-6619226035E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868D63E-4C1E-43FB-9F18-D61C95AEDAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="561">
   <si>
     <t>KING ABDULLAH PORT</t>
   </si>
@@ -1167,13 +1167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1484,6 +1477,341 @@
   </si>
   <si>
     <t>Norway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital of Puerto Rico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Scandinavia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Philippines</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somaliland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>the Republic of Croatia</t>
+  </si>
+  <si>
+    <t>the Republic of the Congo</t>
+  </si>
+  <si>
+    <t>the Republic of the Congo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Syria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>the Republic of Haiti</t>
+  </si>
+  <si>
+    <t>the Republic of Haiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>New Guinea</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>the Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>United States territory of Guam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>El Salvador's</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOTKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,15 +2236,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1946,6 +2265,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,42 +2615,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H240" sqref="H240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="49.2109375" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="24" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.35546875" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.78515625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="30"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>290</v>
@@ -2334,10 +2662,10 @@
         <v>289</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>291</v>
@@ -2362,7 +2690,7 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <v>93.387</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -2388,7 +2716,7 @@
       <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="31">
         <v>87.372</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -2414,7 +2742,7 @@
       <c r="F5" s="18">
         <v>3</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>83.522000000000006</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -2440,7 +2768,7 @@
       <c r="F6" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <v>82.146000000000001</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -2466,7 +2794,7 @@
       <c r="F7" s="18">
         <v>5</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="32">
         <v>81.052000000000007</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -2492,7 +2820,7 @@
       <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <v>80.411000000000001</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -2518,7 +2846,7 @@
       <c r="F9" s="18">
         <v>7</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="32">
         <v>76.076999999999998</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -2544,7 +2872,7 @@
       <c r="F10" s="16">
         <v>8</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <v>73.527000000000001</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -2570,7 +2898,7 @@
       <c r="F11" s="18">
         <v>9</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="32">
         <v>72.748999999999995</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2596,7 +2924,7 @@
       <c r="F12" s="16">
         <v>10</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="31">
         <v>70.322999999999993</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -2622,11 +2950,11 @@
       <c r="F13" s="18">
         <v>11</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="32">
         <v>67.528999999999996</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2648,7 +2976,7 @@
       <c r="F14" s="16">
         <v>12</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="31">
         <v>66.450999999999993</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -2674,11 +3002,11 @@
       <c r="F15" s="18">
         <v>13</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="32">
         <v>63.39</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2700,7 +3028,7 @@
       <c r="F16" s="16">
         <v>14</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="31">
         <v>62.454000000000001</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -2726,11 +3054,11 @@
       <c r="F17" s="18">
         <v>15</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="32">
         <v>61.901000000000003</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2752,7 +3080,7 @@
       <c r="F18" s="16">
         <v>16</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="31">
         <v>59.83</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -2778,7 +3106,7 @@
       <c r="F19" s="18">
         <v>17</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="32">
         <v>58.311999999999998</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -2799,16 +3127,16 @@
         <v>365</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F20" s="16">
         <v>18</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="31">
         <v>56.91</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2822,7 +3150,7 @@
         <v>129.35400000000001</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
@@ -2830,7 +3158,7 @@
       <c r="F21" s="18">
         <v>19</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="32">
         <v>55.311</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -2856,7 +3184,7 @@
       <c r="F22" s="16">
         <v>20</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="31">
         <v>55.012999999999998</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -2882,7 +3210,7 @@
       <c r="F23" s="18">
         <v>21</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="32">
         <v>54.588000000000001</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2908,16 +3236,16 @@
       <c r="F24" s="16">
         <v>22</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="31">
         <v>54.09</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B25" s="18">
         <v>23</v>
@@ -2926,7 +3254,7 @@
         <v>118.295</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
@@ -2934,11 +3262,11 @@
       <c r="F25" s="18">
         <v>23</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="32">
         <v>53.033000000000001</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2952,7 +3280,7 @@
         <v>117.49299999999999</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>16</v>
@@ -2960,11 +3288,11 @@
       <c r="F26" s="16">
         <v>24</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="31">
         <v>52.475999999999999</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -2978,7 +3306,7 @@
         <v>114.739</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>20</v>
@@ -2986,11 +3314,11 @@
       <c r="F27" s="18">
         <v>25</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="32">
         <v>52.307000000000002</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3004,7 +3332,7 @@
         <v>109.82299999999999</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>22</v>
@@ -3012,7 +3340,7 @@
       <c r="F28" s="16">
         <v>26</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="31">
         <v>51.441000000000003</v>
       </c>
       <c r="H28" s="10" t="s">
@@ -3033,16 +3361,16 @@
         <v>295</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F29" s="18">
         <v>27</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="32">
         <v>50.444000000000003</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3056,7 +3384,7 @@
         <v>106.663</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>24</v>
@@ -3064,11 +3392,11 @@
       <c r="F30" s="16">
         <v>28</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="31">
         <v>49.790999999999997</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3082,7 +3410,7 @@
         <v>105.762</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>26</v>
@@ -3090,11 +3418,11 @@
       <c r="F31" s="18">
         <v>29</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="32">
         <v>48.823</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3108,7 +3436,7 @@
         <v>105.35899999999999</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>23</v>
@@ -3116,11 +3444,11 @@
       <c r="F32" s="16">
         <v>30</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="31">
         <v>48.488999999999997</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3134,7 +3462,7 @@
         <v>103.562</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
@@ -3142,11 +3470,11 @@
       <c r="F33" s="18">
         <v>31</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="32">
         <v>47.816000000000003</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3160,7 +3488,7 @@
         <v>103.005</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>30</v>
@@ -3168,11 +3496,11 @@
       <c r="F34" s="16">
         <v>32</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="31">
         <v>45.326999999999998</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3186,7 +3514,7 @@
         <v>102.67400000000001</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>31</v>
@@ -3194,7 +3522,7 @@
       <c r="F35" s="18">
         <v>33</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="32">
         <v>44.226999999999997</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -3212,7 +3540,7 @@
         <v>102.273</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -3220,11 +3548,11 @@
       <c r="F36" s="16">
         <v>34</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="31">
         <v>43.713000000000001</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3238,7 +3566,7 @@
         <v>101.25</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>27</v>
@@ -3246,11 +3574,11 @@
       <c r="F37" s="18">
         <v>35</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="32">
         <v>42.93</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3272,11 +3600,11 @@
       <c r="F38" s="16">
         <v>36</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="31">
         <v>42.53</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3290,7 +3618,7 @@
         <v>100.873</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>310</v>
@@ -3298,7 +3626,7 @@
       <c r="F39" s="18">
         <v>37</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="32">
         <v>41.997999999999998</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -3316,7 +3644,7 @@
         <v>100.226</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>311</v>
@@ -3324,11 +3652,11 @@
       <c r="F40" s="16">
         <v>38</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="31">
         <v>41.377000000000002</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3342,7 +3670,7 @@
         <v>100.17</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -3350,11 +3678,11 @@
       <c r="F41" s="18">
         <v>39</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="32">
         <v>40.558999999999997</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3371,12 +3699,12 @@
         <v>302</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F42" s="16">
         <v>40</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="31">
         <v>39.737000000000002</v>
       </c>
       <c r="H42" s="10" t="s">
@@ -3402,11 +3730,11 @@
       <c r="F43" s="18">
         <v>41</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="32">
         <v>37.582000000000001</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3428,11 +3756,11 @@
       <c r="F44" s="16">
         <v>42</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="31">
         <v>37.548999999999999</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3446,7 +3774,7 @@
         <v>93.585999999999999</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>37</v>
@@ -3454,7 +3782,7 @@
       <c r="F45" s="14">
         <v>43</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="30">
         <v>37.197000000000003</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -3472,7 +3800,7 @@
         <v>92.570999999999998</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>309</v>
@@ -3480,7 +3808,7 @@
       <c r="F46" s="16">
         <v>44</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="31">
         <v>36.35</v>
       </c>
       <c r="H46" s="10" t="s">
@@ -3489,7 +3817,7 @@
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B47" s="18">
         <v>45</v>
@@ -3506,7 +3834,7 @@
       <c r="F47" s="18">
         <v>45</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="32">
         <v>35.895000000000003</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -3515,7 +3843,7 @@
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B48" s="16">
         <v>46</v>
@@ -3524,7 +3852,7 @@
         <v>91.744</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>39</v>
@@ -3532,11 +3860,11 @@
       <c r="F48" s="16">
         <v>46</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="31">
         <v>35.567999999999998</v>
       </c>
-      <c r="H48" s="41" t="s">
-        <v>377</v>
+      <c r="H48" s="38" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3558,7 +3886,7 @@
       <c r="F49" s="18">
         <v>47</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="32">
         <v>35.095999999999997</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -3576,7 +3904,7 @@
         <v>86.563000000000002</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>41</v>
@@ -3584,16 +3912,16 @@
       <c r="F50" s="16">
         <v>48</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="31">
         <v>34.706000000000003</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B51" s="18">
         <v>49</v>
@@ -3602,7 +3930,7 @@
         <v>84.186999999999998</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>35</v>
@@ -3610,7 +3938,7 @@
       <c r="F51" s="18">
         <v>49</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="32">
         <v>33.795999999999999</v>
       </c>
       <c r="H51" s="12" t="s">
@@ -3628,7 +3956,7 @@
         <v>83.775000000000006</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>42</v>
@@ -3636,11 +3964,11 @@
       <c r="F52" s="16">
         <v>50</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="31">
         <v>33.142000000000003</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3654,7 +3982,7 @@
         <v>82.974000000000004</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>312</v>
@@ -3662,7 +3990,7 @@
       <c r="F53" s="18">
         <v>51</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="32">
         <v>32.542999999999999</v>
       </c>
       <c r="H53" s="12" t="s">
@@ -3680,19 +4008,19 @@
         <v>82.105999999999995</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F54" s="16">
         <v>52</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="31">
         <v>31.859000000000002</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3714,11 +4042,11 @@
       <c r="F55" s="18">
         <v>53</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="32">
         <v>31.82</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3732,7 +4060,7 @@
         <v>79.671999999999997</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>45</v>
@@ -3740,11 +4068,11 @@
       <c r="F56" s="16">
         <v>54</v>
       </c>
-      <c r="G56" s="34">
+      <c r="G56" s="31">
         <v>29.896000000000001</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3758,7 +4086,7 @@
         <v>74.759</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>47</v>
@@ -3766,11 +4094,11 @@
       <c r="F57" s="18">
         <v>55</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="32">
         <v>29.611000000000001</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3792,11 +4120,11 @@
       <c r="F58" s="16">
         <v>56</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="31">
         <v>29.427</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3810,19 +4138,19 @@
         <v>74.024000000000001</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F59" s="18">
         <v>57</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="32">
         <v>29.111000000000001</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3836,7 +4164,7 @@
         <v>72.703000000000003</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>46</v>
@@ -3844,11 +4172,11 @@
       <c r="F60" s="16">
         <v>58</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="31">
         <v>28.728999999999999</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3862,7 +4190,7 @@
         <v>67.921999999999997</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>313</v>
@@ -3870,7 +4198,7 @@
       <c r="F61" s="18">
         <v>59</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="32">
         <v>28.629000000000001</v>
       </c>
       <c r="H61" s="12" t="s">
@@ -3888,7 +4216,7 @@
         <v>67.846000000000004</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>49</v>
@@ -3896,11 +4224,11 @@
       <c r="F62" s="16">
         <v>60</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="31">
         <v>26.591999999999999</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3914,24 +4242,24 @@
         <v>67.840999999999994</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F63" s="18">
         <v>61</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="32">
         <v>26.488</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B64" s="16">
         <v>62</v>
@@ -3940,7 +4268,7 @@
         <v>67.72</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>50</v>
@@ -3948,11 +4276,11 @@
       <c r="F64" s="16">
         <v>62</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="31">
         <v>25.486000000000001</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3966,7 +4294,7 @@
         <v>67.12</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>51</v>
@@ -3974,11 +4302,11 @@
       <c r="F65" s="18">
         <v>63</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="32">
         <v>24.603000000000002</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -3992,7 +4320,7 @@
         <v>64.317999999999998</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>53</v>
@@ -4000,11 +4328,11 @@
       <c r="F66" s="16">
         <v>64</v>
       </c>
-      <c r="G66" s="34">
+      <c r="G66" s="31">
         <v>24.562000000000001</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4018,7 +4346,7 @@
         <v>62.42</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>55</v>
@@ -4026,11 +4354,11 @@
       <c r="F67" s="18">
         <v>65</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G67" s="32">
         <v>24.225000000000001</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4044,7 +4372,7 @@
         <v>61.465000000000003</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>52</v>
@@ -4052,11 +4380,11 @@
       <c r="F68" s="16">
         <v>66</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="31">
         <v>24.193999999999999</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4078,11 +4406,11 @@
       <c r="F69" s="18">
         <v>67</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="32">
         <v>24.076000000000001</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4096,7 +4424,7 @@
         <v>59.142000000000003</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>58</v>
@@ -4104,11 +4432,11 @@
       <c r="F70" s="16">
         <v>68</v>
       </c>
-      <c r="G70" s="34">
+      <c r="G70" s="31">
         <v>23.73</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4130,11 +4458,11 @@
       <c r="F71" s="18">
         <v>69</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="32">
         <v>23.585000000000001</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4148,7 +4476,7 @@
         <v>59.012</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>316</v>
@@ -4156,16 +4484,16 @@
       <c r="F72" s="16">
         <v>70</v>
       </c>
-      <c r="G72" s="34">
+      <c r="G72" s="31">
         <v>23.442</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B73" s="18">
         <v>71</v>
@@ -4182,11 +4510,11 @@
       <c r="F73" s="18">
         <v>71</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="32">
         <v>22.440999999999999</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4200,7 +4528,7 @@
         <v>57.826000000000001</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>315</v>
@@ -4208,11 +4536,11 @@
       <c r="F74" s="16">
         <v>72</v>
       </c>
-      <c r="G74" s="34">
+      <c r="G74" s="31">
         <v>21.916</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4226,7 +4554,7 @@
         <v>57.338999999999999</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>59</v>
@@ -4234,7 +4562,7 @@
       <c r="F75" s="18">
         <v>73</v>
       </c>
-      <c r="G75" s="35">
+      <c r="G75" s="32">
         <v>21.818000000000001</v>
       </c>
       <c r="H75" s="12" t="s">
@@ -4243,7 +4571,7 @@
     </row>
     <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B76" s="16">
         <v>74</v>
@@ -4252,19 +4580,19 @@
         <v>54.994</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F76" s="16">
         <v>74</v>
       </c>
-      <c r="G76" s="34">
+      <c r="G76" s="31">
         <v>21.722999999999999</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4278,7 +4606,7 @@
         <v>54.741999999999997</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>61</v>
@@ -4286,11 +4614,11 @@
       <c r="F77" s="18">
         <v>75</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G77" s="32">
         <v>21.687999999999999</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4304,7 +4632,7 @@
         <v>54.640999999999998</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>62</v>
@@ -4312,7 +4640,7 @@
       <c r="F78" s="16">
         <v>76</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G78" s="31">
         <v>21.645</v>
       </c>
       <c r="H78" s="10" t="s">
@@ -4330,7 +4658,7 @@
         <v>54.305</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>314</v>
@@ -4338,7 +4666,7 @@
       <c r="F79" s="18">
         <v>77</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G79" s="32">
         <v>20.716000000000001</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -4364,11 +4692,11 @@
       <c r="F80" s="16">
         <v>78</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G80" s="31">
         <v>20.670999999999999</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4382,7 +4710,7 @@
         <v>53.393999999999998</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>65</v>
@@ -4390,11 +4718,11 @@
       <c r="F81" s="18">
         <v>79</v>
       </c>
-      <c r="G81" s="35">
+      <c r="G81" s="32">
         <v>20.597000000000001</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4408,7 +4736,7 @@
         <v>52.564999999999998</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>66</v>
@@ -4416,11 +4744,11 @@
       <c r="F82" s="16">
         <v>80</v>
       </c>
-      <c r="G82" s="34">
+      <c r="G82" s="31">
         <v>20.312000000000001</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4434,7 +4762,7 @@
         <v>50.962000000000003</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>67</v>
@@ -4442,7 +4770,7 @@
       <c r="F83" s="18">
         <v>81</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G83" s="32">
         <v>20.193000000000001</v>
       </c>
       <c r="H83" s="12" t="s">
@@ -4460,7 +4788,7 @@
         <v>50.953000000000003</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>68</v>
@@ -4468,11 +4796,11 @@
       <c r="F84" s="16">
         <v>82</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G84" s="31">
         <v>20.096</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4494,11 +4822,11 @@
       <c r="F85" s="14">
         <v>83</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G85" s="30">
         <v>20.056000000000001</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4512,7 +4840,7 @@
         <v>50.258000000000003</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>60</v>
@@ -4520,11 +4848,11 @@
       <c r="F86" s="16">
         <v>84</v>
       </c>
-      <c r="G86" s="34">
+      <c r="G86" s="31">
         <v>20.015000000000001</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4546,11 +4874,11 @@
       <c r="F87" s="18">
         <v>85</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G87" s="32">
         <v>20.013999999999999</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4564,7 +4892,7 @@
         <v>47.807000000000002</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>71</v>
@@ -4572,11 +4900,11 @@
       <c r="F88" s="16">
         <v>86</v>
       </c>
-      <c r="G88" s="34">
+      <c r="G88" s="31">
         <v>20.013000000000002</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4590,7 +4918,7 @@
         <v>47.491</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>318</v>
@@ -4598,11 +4926,11 @@
       <c r="F89" s="18">
         <v>87</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="32">
         <v>19.994</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4616,15 +4944,15 @@
         <v>46.92</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F90" s="16">
         <v>88</v>
       </c>
-      <c r="G90" s="34">
+      <c r="G90" s="31">
         <v>19.591000000000001</v>
       </c>
       <c r="H90" s="10" t="s">
@@ -4633,7 +4961,7 @@
     </row>
     <row r="91" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B91" s="18">
         <v>89</v>
@@ -4642,7 +4970,7 @@
         <v>46.685000000000002</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>72</v>
@@ -4650,11 +4978,11 @@
       <c r="F91" s="18">
         <v>89</v>
       </c>
-      <c r="G91" s="35">
+      <c r="G91" s="32">
         <v>19.530999999999999</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4668,7 +4996,7 @@
         <v>46.399000000000001</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>319</v>
@@ -4676,11 +5004,11 @@
       <c r="F92" s="16">
         <v>90</v>
       </c>
-      <c r="G92" s="34">
+      <c r="G92" s="31">
         <v>19.459</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4702,11 +5030,11 @@
       <c r="F93" s="18">
         <v>91</v>
       </c>
-      <c r="G93" s="35">
+      <c r="G93" s="32">
         <v>19.297000000000001</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4720,7 +5048,7 @@
         <v>46.05</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>64</v>
@@ -4728,11 +5056,11 @@
       <c r="F94" s="16">
         <v>92</v>
       </c>
-      <c r="G94" s="34">
+      <c r="G94" s="31">
         <v>18.847000000000001</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4746,7 +5074,7 @@
         <v>45.956000000000003</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>73</v>
@@ -4754,11 +5082,11 @@
       <c r="F95" s="18">
         <v>93</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="32">
         <v>18.277000000000001</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4772,7 +5100,7 @@
         <v>45.9</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>321</v>
@@ -4780,11 +5108,11 @@
       <c r="F96" s="16">
         <v>94</v>
       </c>
-      <c r="G96" s="34">
+      <c r="G96" s="31">
         <v>17.677</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4798,7 +5126,7 @@
         <v>45.823999999999998</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>322</v>
@@ -4806,11 +5134,11 @@
       <c r="F97" s="18">
         <v>95</v>
       </c>
-      <c r="G97" s="35">
+      <c r="G97" s="32">
         <v>17.567</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4824,15 +5152,15 @@
         <v>45.146000000000001</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F98" s="16">
         <v>96</v>
       </c>
-      <c r="G98" s="34">
+      <c r="G98" s="31">
         <v>17.317</v>
       </c>
       <c r="H98" s="10" t="s">
@@ -4850,7 +5178,7 @@
         <v>44.636000000000003</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>323</v>
@@ -4858,11 +5186,11 @@
       <c r="F99" s="18">
         <v>97</v>
       </c>
-      <c r="G99" s="35">
+      <c r="G99" s="32">
         <v>17.16</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4876,7 +5204,7 @@
         <v>44.482999999999997</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>77</v>
@@ -4884,11 +5212,11 @@
       <c r="F100" s="16">
         <v>98</v>
       </c>
-      <c r="G100" s="34">
+      <c r="G100" s="31">
         <v>17.056999999999999</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4902,7 +5230,7 @@
         <v>44.28</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>78</v>
@@ -4910,11 +5238,11 @@
       <c r="F101" s="18">
         <v>99</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="32">
         <v>16.867999999999999</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4928,7 +5256,7 @@
         <v>44.256</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>79</v>
@@ -4936,11 +5264,11 @@
       <c r="F102" s="16">
         <v>100</v>
       </c>
-      <c r="G102" s="34">
+      <c r="G102" s="31">
         <v>16.867000000000001</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -4954,7 +5282,7 @@
         <v>43.771999999999998</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>320</v>
@@ -4962,7 +5290,7 @@
       <c r="F103" s="18">
         <v>101</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G103" s="32">
         <v>16.864000000000001</v>
       </c>
       <c r="H103" s="12" t="s">
@@ -4980,7 +5308,7 @@
         <v>43.588000000000001</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>80</v>
@@ -4988,11 +5316,11 @@
       <c r="F104" s="16">
         <v>102</v>
       </c>
-      <c r="G104" s="34">
+      <c r="G104" s="31">
         <v>16.768999999999998</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5006,7 +5334,7 @@
         <v>43.527000000000001</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>324</v>
@@ -5014,11 +5342,11 @@
       <c r="F105" s="18">
         <v>103</v>
       </c>
-      <c r="G105" s="35">
+      <c r="G105" s="32">
         <v>16.338000000000001</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5032,7 +5360,7 @@
         <v>43.116999999999997</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>81</v>
@@ -5040,11 +5368,11 @@
       <c r="F106" s="16">
         <v>104</v>
       </c>
-      <c r="G106" s="34">
+      <c r="G106" s="31">
         <v>16.047000000000001</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5058,19 +5386,19 @@
         <v>41.619</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F107" s="18">
         <v>105</v>
       </c>
-      <c r="G107" s="35">
+      <c r="G107" s="32">
         <v>15.943</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5084,7 +5412,7 @@
         <v>41.494</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>43</v>
@@ -5092,11 +5420,11 @@
       <c r="F108" s="16">
         <v>106</v>
       </c>
-      <c r="G108" s="34">
+      <c r="G108" s="31">
         <v>15.827</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5110,7 +5438,7 @@
         <v>41.332999999999998</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>82</v>
@@ -5118,11 +5446,11 @@
       <c r="F109" s="18">
         <v>107</v>
       </c>
-      <c r="G109" s="35">
+      <c r="G109" s="32">
         <v>15.702</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5136,7 +5464,7 @@
         <v>40.314</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>84</v>
@@ -5144,11 +5472,11 @@
       <c r="F110" s="16">
         <v>108</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G110" s="31">
         <v>15.404</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5162,7 +5490,7 @@
         <v>40.161999999999999</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>75</v>
@@ -5170,11 +5498,11 @@
       <c r="F111" s="18">
         <v>109</v>
       </c>
-      <c r="G111" s="35">
+      <c r="G111" s="32">
         <v>15.138</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5516,7 @@
         <v>36.421999999999997</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>38</v>
@@ -5196,7 +5524,7 @@
       <c r="F112" s="16">
         <v>110</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G112" s="31">
         <v>14.962</v>
       </c>
       <c r="H112" s="10" t="s">
@@ -5214,7 +5542,7 @@
         <v>36.340000000000003</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>76</v>
@@ -5222,11 +5550,11 @@
       <c r="F113" s="18">
         <v>111</v>
       </c>
-      <c r="G113" s="35">
+      <c r="G113" s="32">
         <v>14.739000000000001</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5568,7 @@
         <v>36.122999999999998</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>54</v>
@@ -5248,11 +5576,11 @@
       <c r="F114" s="16">
         <v>112</v>
       </c>
-      <c r="G114" s="34">
+      <c r="G114" s="31">
         <v>14.641999999999999</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5266,7 +5594,7 @@
         <v>36.098999999999997</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>83</v>
@@ -5274,11 +5602,11 @@
       <c r="F115" s="18">
         <v>113</v>
       </c>
-      <c r="G115" s="35">
+      <c r="G115" s="32">
         <v>14.494</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5292,7 +5620,7 @@
         <v>34.290999999999997</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>326</v>
@@ -5300,11 +5628,11 @@
       <c r="F116" s="16">
         <v>114</v>
       </c>
-      <c r="G116" s="34">
+      <c r="G116" s="31">
         <v>13.605</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5318,7 +5646,7 @@
         <v>34.152999999999999</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>88</v>
@@ -5326,11 +5654,11 @@
       <c r="F117" s="18">
         <v>115</v>
       </c>
-      <c r="G117" s="35">
+      <c r="G117" s="32">
         <v>13.428000000000001</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5344,7 +5672,7 @@
         <v>33.709000000000003</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>86</v>
@@ -5352,11 +5680,11 @@
       <c r="F118" s="16">
         <v>116</v>
       </c>
-      <c r="G118" s="34">
+      <c r="G118" s="31">
         <v>13.331</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5370,7 +5698,7 @@
         <v>33.384</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>327</v>
@@ -5378,7 +5706,7 @@
       <c r="F119" s="18">
         <v>117</v>
       </c>
-      <c r="G119" s="35">
+      <c r="G119" s="32">
         <v>12.58</v>
       </c>
       <c r="H119" s="12" t="s">
@@ -5396,7 +5724,7 @@
         <v>32.139000000000003</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>90</v>
@@ -5404,11 +5732,11 @@
       <c r="F120" s="16">
         <v>118</v>
       </c>
-      <c r="G120" s="34">
+      <c r="G120" s="31">
         <v>12.555</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5422,7 +5750,7 @@
         <v>32.043999999999997</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>92</v>
@@ -5430,11 +5758,11 @@
       <c r="F121" s="18">
         <v>119</v>
       </c>
-      <c r="G121" s="35">
+      <c r="G121" s="32">
         <v>11.901999999999999</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5456,7 +5784,7 @@
       <c r="F122" s="16">
         <v>120</v>
       </c>
-      <c r="G122" s="34">
+      <c r="G122" s="31">
         <v>11.448</v>
       </c>
       <c r="H122" s="10" t="s">
@@ -5474,7 +5802,7 @@
         <v>29.363</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>95</v>
@@ -5482,7 +5810,7 @@
       <c r="F123" s="18">
         <v>121</v>
       </c>
-      <c r="G123" s="35">
+      <c r="G123" s="32">
         <v>10.971</v>
       </c>
       <c r="H123" s="12" t="s">
@@ -5491,7 +5819,7 @@
     </row>
     <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B124" s="16">
         <v>122</v>
@@ -5500,7 +5828,7 @@
         <v>28.535</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>96</v>
@@ -5508,7 +5836,7 @@
       <c r="F124" s="16">
         <v>122</v>
       </c>
-      <c r="G124" s="34">
+      <c r="G124" s="31">
         <v>10.951000000000001</v>
       </c>
       <c r="H124" s="10" t="s">
@@ -5526,7 +5854,7 @@
         <v>28.257000000000001</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>91</v>
@@ -5534,11 +5862,11 @@
       <c r="F125" s="18">
         <v>123</v>
       </c>
-      <c r="G125" s="35">
+      <c r="G125" s="32">
         <v>10.771000000000001</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5552,7 +5880,7 @@
         <v>28.231000000000002</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>97</v>
@@ -5560,11 +5888,11 @@
       <c r="F126" s="16">
         <v>124</v>
       </c>
-      <c r="G126" s="34">
+      <c r="G126" s="31">
         <v>10.536</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5586,11 +5914,11 @@
       <c r="F127" s="14">
         <v>125</v>
       </c>
-      <c r="G127" s="33">
+      <c r="G127" s="30">
         <v>10.436</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5604,7 +5932,7 @@
         <v>26.882999999999999</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>93</v>
@@ -5612,7 +5940,7 @@
       <c r="F128" s="16">
         <v>126</v>
       </c>
-      <c r="G128" s="34">
+      <c r="G128" s="31">
         <v>10.433999999999999</v>
       </c>
       <c r="H128" s="10" t="s">
@@ -5633,16 +5961,16 @@
         <v>302</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F129" s="18">
         <v>127</v>
       </c>
-      <c r="G129" s="35">
+      <c r="G129" s="32">
         <v>10.42</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5664,11 +5992,11 @@
       <c r="F130" s="16">
         <v>128</v>
       </c>
-      <c r="G130" s="34">
+      <c r="G130" s="31">
         <v>10.157999999999999</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5682,7 +6010,7 @@
         <v>26.321000000000002</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>94</v>
@@ -5690,11 +6018,11 @@
       <c r="F131" s="18">
         <v>129</v>
       </c>
-      <c r="G131" s="35">
+      <c r="G131" s="32">
         <v>10.037000000000001</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5708,7 +6036,7 @@
         <v>26.183</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>87</v>
@@ -5716,11 +6044,11 @@
       <c r="F132" s="16">
         <v>130</v>
       </c>
-      <c r="G132" s="34">
+      <c r="G132" s="31">
         <v>9.6820000000000004</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5734,7 +6062,7 @@
         <v>25.431999999999999</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>331</v>
@@ -5742,11 +6070,11 @@
       <c r="F133" s="18">
         <v>131</v>
       </c>
-      <c r="G133" s="35">
+      <c r="G133" s="32">
         <v>9.5589999999999993</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5768,16 +6096,16 @@
       <c r="F134" s="16">
         <v>132</v>
       </c>
-      <c r="G134" s="34">
+      <c r="G134" s="31">
         <v>9.4600000000000009</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B135" s="18">
         <v>133</v>
@@ -5794,11 +6122,11 @@
       <c r="F135" s="18">
         <v>133</v>
       </c>
-      <c r="G135" s="35">
+      <c r="G135" s="32">
         <v>9.3550000000000004</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5812,7 +6140,7 @@
         <v>24.245999999999999</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>85</v>
@@ -5820,11 +6148,11 @@
       <c r="F136" s="16">
         <v>134</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G136" s="31">
         <v>9.34</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5846,7 +6174,7 @@
       <c r="F137" s="18">
         <v>135</v>
       </c>
-      <c r="G137" s="35">
+      <c r="G137" s="32">
         <v>9.3149999999999995</v>
       </c>
       <c r="H137" s="12" t="s">
@@ -5872,11 +6200,11 @@
       <c r="F138" s="16">
         <v>136</v>
       </c>
-      <c r="G138" s="34">
+      <c r="G138" s="31">
         <v>8.8490000000000002</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5898,7 +6226,7 @@
       <c r="F139" s="18">
         <v>137</v>
       </c>
-      <c r="G139" s="35">
+      <c r="G139" s="32">
         <v>8.7149999999999999</v>
       </c>
       <c r="H139" s="12" t="s">
@@ -5916,7 +6244,7 @@
         <v>22.021000000000001</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>108</v>
@@ -5924,7 +6252,7 @@
       <c r="F140" s="16">
         <v>138</v>
       </c>
-      <c r="G140" s="34">
+      <c r="G140" s="31">
         <v>8.6199999999999992</v>
       </c>
       <c r="H140" s="10" t="s">
@@ -5942,7 +6270,7 @@
         <v>21.701000000000001</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>333</v>
@@ -5950,11 +6278,11 @@
       <c r="F141" s="18">
         <v>139</v>
       </c>
-      <c r="G141" s="35">
+      <c r="G141" s="32">
         <v>8.4670000000000005</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -5968,7 +6296,7 @@
         <v>21.08</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>106</v>
@@ -5976,7 +6304,7 @@
       <c r="F142" s="16">
         <v>140</v>
       </c>
-      <c r="G142" s="34">
+      <c r="G142" s="31">
         <v>8.27</v>
       </c>
       <c r="H142" s="10" t="s">
@@ -5994,7 +6322,7 @@
         <v>21.032</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>109</v>
@@ -6002,11 +6330,11 @@
       <c r="F143" s="18">
         <v>141</v>
       </c>
-      <c r="G143" s="35">
+      <c r="G143" s="32">
         <v>8.141</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -6028,11 +6356,11 @@
       <c r="F144" s="16">
         <v>142</v>
       </c>
-      <c r="G144" s="34">
+      <c r="G144" s="31">
         <v>8.0250000000000004</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -6045,17 +6373,21 @@
       <c r="C145" s="19">
         <v>20.317</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F145" s="18">
         <v>143</v>
       </c>
-      <c r="G145" s="35">
+      <c r="G145" s="32">
         <v>8.0220000000000002</v>
       </c>
-      <c r="H145" s="12"/>
+      <c r="H145" s="12" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
@@ -6067,17 +6399,21 @@
       <c r="C146" s="17">
         <v>20.097999999999999</v>
       </c>
-      <c r="D146" s="10"/>
+      <c r="D146" s="10" t="s">
+        <v>456</v>
+      </c>
       <c r="E146" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F146" s="16">
         <v>144</v>
       </c>
-      <c r="G146" s="34">
+      <c r="G146" s="31">
         <v>7.8550000000000004</v>
       </c>
-      <c r="H146" s="10"/>
+      <c r="H146" s="10" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
@@ -6089,17 +6425,21 @@
       <c r="C147" s="19">
         <v>19.812999999999999</v>
       </c>
-      <c r="D147" s="12"/>
+      <c r="D147" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F147" s="18">
         <v>145</v>
       </c>
-      <c r="G147" s="35">
+      <c r="G147" s="32">
         <v>7.8109999999999999</v>
       </c>
-      <c r="H147" s="12"/>
+      <c r="H147" s="12" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
@@ -6111,17 +6451,21 @@
       <c r="C148" s="17">
         <v>18.876999999999999</v>
       </c>
-      <c r="D148" s="10"/>
+      <c r="D148" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="E148" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F148" s="16">
         <v>146</v>
       </c>
-      <c r="G148" s="34">
+      <c r="G148" s="31">
         <v>7.64</v>
       </c>
-      <c r="H148" s="10"/>
+      <c r="H148" s="10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
@@ -6133,17 +6477,21 @@
       <c r="C149" s="19">
         <v>18.414999999999999</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="12" t="s">
+        <v>460</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F149" s="18">
         <v>147</v>
       </c>
-      <c r="G149" s="35">
+      <c r="G149" s="32">
         <v>7.59</v>
       </c>
-      <c r="H149" s="12"/>
+      <c r="H149" s="12" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="9" t="s">
@@ -6155,17 +6503,21 @@
       <c r="C150" s="17">
         <v>18.332000000000001</v>
       </c>
-      <c r="D150" s="10"/>
+      <c r="D150" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="E150" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F150" s="16">
         <v>148</v>
       </c>
-      <c r="G150" s="34">
+      <c r="G150" s="31">
         <v>7.57</v>
       </c>
-      <c r="H150" s="10"/>
+      <c r="H150" s="10" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
@@ -6177,17 +6529,21 @@
       <c r="C151" s="19">
         <v>18.234000000000002</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F151" s="18">
         <v>149</v>
       </c>
-      <c r="G151" s="35">
+      <c r="G151" s="32">
         <v>7.476</v>
       </c>
-      <c r="H151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="9" t="s">
@@ -6199,17 +6555,21 @@
       <c r="C152" s="17">
         <v>17.972999999999999</v>
       </c>
-      <c r="D152" s="10"/>
+      <c r="D152" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="E152" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F152" s="16">
         <v>150</v>
       </c>
-      <c r="G152" s="34">
+      <c r="G152" s="31">
         <v>7.3840000000000003</v>
       </c>
-      <c r="H152" s="10"/>
+      <c r="H152" s="10" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
@@ -6221,17 +6581,21 @@
       <c r="C153" s="19">
         <v>17.760999999999999</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="12" t="s">
+        <v>464</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F153" s="18">
         <v>151</v>
       </c>
-      <c r="G153" s="35">
+      <c r="G153" s="32">
         <v>6.9770000000000003</v>
       </c>
-      <c r="H153" s="12"/>
+      <c r="H153" s="12" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="9" t="s">
@@ -6243,17 +6607,21 @@
       <c r="C154" s="17">
         <v>17.753</v>
       </c>
-      <c r="D154" s="10"/>
+      <c r="D154" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="E154" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F154" s="16">
         <v>152</v>
       </c>
-      <c r="G154" s="34">
+      <c r="G154" s="31">
         <v>6.9109999999999996</v>
       </c>
-      <c r="H154" s="10"/>
+      <c r="H154" s="10" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
@@ -6265,17 +6633,21 @@
       <c r="C155" s="19">
         <v>17.283999999999999</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="12" t="s">
+        <v>448</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F155" s="18">
         <v>153</v>
       </c>
-      <c r="G155" s="35">
+      <c r="G155" s="32">
         <v>6.649</v>
       </c>
-      <c r="H155" s="12"/>
+      <c r="H155" s="12" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="9" t="s">
@@ -6287,17 +6659,21 @@
       <c r="C156" s="17">
         <v>17.143999999999998</v>
       </c>
-      <c r="D156" s="10"/>
+      <c r="D156" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="E156" s="11" t="s">
         <v>334</v>
       </c>
       <c r="F156" s="16">
         <v>154</v>
       </c>
-      <c r="G156" s="34">
+      <c r="G156" s="31">
         <v>6.6379999999999999</v>
       </c>
-      <c r="H156" s="10"/>
+      <c r="H156" s="10" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
@@ -6309,17 +6685,21 @@
       <c r="C157" s="19">
         <v>16.731000000000002</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="E157" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F157" s="18">
         <v>155</v>
       </c>
-      <c r="G157" s="35">
+      <c r="G157" s="32">
         <v>6.6210000000000004</v>
       </c>
-      <c r="H157" s="12"/>
+      <c r="H157" s="12" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="9" t="s">
@@ -6331,17 +6711,21 @@
       <c r="C158" s="17">
         <v>16.72</v>
       </c>
-      <c r="D158" s="10"/>
+      <c r="D158" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="E158" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F158" s="16">
         <v>156</v>
       </c>
-      <c r="G158" s="34">
+      <c r="G158" s="31">
         <v>6.5410000000000004</v>
       </c>
-      <c r="H158" s="10"/>
+      <c r="H158" s="10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
@@ -6353,17 +6737,21 @@
       <c r="C159" s="19">
         <v>16.477</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="12" t="s">
+        <v>458</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F159" s="18">
         <v>157</v>
       </c>
-      <c r="G159" s="35">
+      <c r="G159" s="32">
         <v>6.5010000000000003</v>
       </c>
-      <c r="H159" s="12"/>
+      <c r="H159" s="12" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="9" t="s">
@@ -6375,17 +6763,21 @@
       <c r="C160" s="17">
         <v>16.155999999999999</v>
       </c>
-      <c r="D160" s="10"/>
+      <c r="D160" s="10" t="s">
+        <v>467</v>
+      </c>
       <c r="E160" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F160" s="16">
         <v>158</v>
       </c>
-      <c r="G160" s="34">
+      <c r="G160" s="31">
         <v>6.4379999999999997</v>
       </c>
-      <c r="H160" s="10"/>
+      <c r="H160" s="10" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
@@ -6397,17 +6789,21 @@
       <c r="C161" s="19">
         <v>16.033999999999999</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F161" s="18">
         <v>159</v>
       </c>
-      <c r="G161" s="35">
+      <c r="G161" s="32">
         <v>6.2729999999999997</v>
       </c>
-      <c r="H161" s="12"/>
+      <c r="H161" s="12" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
@@ -6419,17 +6815,21 @@
       <c r="C162" s="17">
         <v>15.948</v>
       </c>
-      <c r="D162" s="10"/>
+      <c r="D162" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="E162" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F162" s="16">
         <v>160</v>
       </c>
-      <c r="G162" s="34">
+      <c r="G162" s="31">
         <v>6.2480000000000002</v>
       </c>
-      <c r="H162" s="10"/>
+      <c r="H162" s="10" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="163" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
@@ -6441,17 +6841,21 @@
       <c r="C163" s="19">
         <v>15.78</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="E163" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F163" s="18">
         <v>161</v>
       </c>
-      <c r="G163" s="35">
+      <c r="G163" s="32">
         <v>6.0469999999999997</v>
       </c>
-      <c r="H163" s="12"/>
+      <c r="H163" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
@@ -6463,17 +6867,21 @@
       <c r="C164" s="17">
         <v>15.62</v>
       </c>
-      <c r="D164" s="10"/>
+      <c r="D164" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="E164" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F164" s="16">
         <v>162</v>
       </c>
-      <c r="G164" s="34">
+      <c r="G164" s="31">
         <v>6.0110000000000001</v>
       </c>
-      <c r="H164" s="10"/>
+      <c r="H164" s="10" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="165" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
@@ -6485,17 +6893,21 @@
       <c r="C165" s="19">
         <v>15.366</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F165" s="18">
         <v>163</v>
       </c>
-      <c r="G165" s="35">
+      <c r="G165" s="32">
         <v>5.9809999999999999</v>
       </c>
-      <c r="H165" s="12"/>
+      <c r="H165" s="12" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="166" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
@@ -6507,17 +6919,21 @@
       <c r="C166" s="17">
         <v>14.903</v>
       </c>
-      <c r="D166" s="10"/>
+      <c r="D166" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="E166" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F166" s="16">
         <v>164</v>
       </c>
-      <c r="G166" s="34">
+      <c r="G166" s="31">
         <v>5.7549999999999999</v>
       </c>
-      <c r="H166" s="10"/>
+      <c r="H166" s="10" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
@@ -6529,17 +6945,21 @@
       <c r="C167" s="19">
         <v>14.432</v>
       </c>
-      <c r="D167" s="12"/>
+      <c r="D167" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="E167" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F167" s="18">
         <v>165</v>
       </c>
-      <c r="G167" s="35">
+      <c r="G167" s="32">
         <v>5.7519999999999998</v>
       </c>
-      <c r="H167" s="12"/>
+      <c r="H167" s="12" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
@@ -6551,17 +6971,21 @@
       <c r="C168" s="17">
         <v>14.417999999999999</v>
       </c>
-      <c r="D168" s="10"/>
+      <c r="D168" s="10" t="s">
+        <v>472</v>
+      </c>
       <c r="E168" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F168" s="16">
         <v>166</v>
       </c>
-      <c r="G168" s="34">
+      <c r="G168" s="31">
         <v>5.7439999999999998</v>
       </c>
-      <c r="H168" s="10"/>
+      <c r="H168" s="10" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
@@ -6573,17 +6997,21 @@
       <c r="C169" s="15">
         <v>14.228999999999999</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="E169" s="13" t="s">
         <v>134</v>
       </c>
       <c r="F169" s="14">
         <v>167</v>
       </c>
-      <c r="G169" s="33">
+      <c r="G169" s="30">
         <v>5.7389999999999999</v>
       </c>
-      <c r="H169" s="7"/>
+      <c r="H169" s="7" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="9" t="s">
@@ -6595,17 +7023,21 @@
       <c r="C170" s="17">
         <v>14.121</v>
       </c>
-      <c r="D170" s="10"/>
+      <c r="D170" s="10" t="s">
+        <v>476</v>
+      </c>
       <c r="E170" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F170" s="16">
         <v>168</v>
       </c>
-      <c r="G170" s="34">
+      <c r="G170" s="31">
         <v>5.5369999999999999</v>
       </c>
-      <c r="H170" s="10"/>
+      <c r="H170" s="10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
@@ -6617,17 +7049,21 @@
       <c r="C171" s="19">
         <v>13.895</v>
       </c>
-      <c r="D171" s="12"/>
+      <c r="D171" s="12" t="s">
+        <v>474</v>
+      </c>
       <c r="E171" s="1" t="s">
         <v>336</v>
       </c>
       <c r="F171" s="18">
         <v>169</v>
       </c>
-      <c r="G171" s="35">
+      <c r="G171" s="32">
         <v>5.524</v>
       </c>
-      <c r="H171" s="12"/>
+      <c r="H171" s="12" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="172" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="9" t="s">
@@ -6639,17 +7075,21 @@
       <c r="C172" s="17">
         <v>13.762</v>
       </c>
-      <c r="D172" s="10"/>
+      <c r="D172" s="10" t="s">
+        <v>449</v>
+      </c>
       <c r="E172" s="11" t="s">
         <v>337</v>
       </c>
       <c r="F172" s="16">
         <v>170</v>
       </c>
-      <c r="G172" s="34">
+      <c r="G172" s="31">
         <v>5.4820000000000002</v>
       </c>
-      <c r="H172" s="10"/>
+      <c r="H172" s="10" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
@@ -6661,17 +7101,21 @@
       <c r="C173" s="19">
         <v>13.688000000000001</v>
       </c>
-      <c r="D173" s="12"/>
+      <c r="D173" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="E173" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F173" s="18">
         <v>171</v>
       </c>
-      <c r="G173" s="35">
+      <c r="G173" s="32">
         <v>5.3639999999999999</v>
       </c>
-      <c r="H173" s="12"/>
+      <c r="H173" s="12" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="174" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
@@ -6683,17 +7127,21 @@
       <c r="C174" s="17">
         <v>13.554</v>
       </c>
-      <c r="D174" s="10"/>
+      <c r="D174" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="E174" s="11" t="s">
         <v>115</v>
       </c>
       <c r="F174" s="16">
         <v>172</v>
       </c>
-      <c r="G174" s="34">
+      <c r="G174" s="31">
         <v>5.2030000000000003</v>
       </c>
-      <c r="H174" s="10"/>
+      <c r="H174" s="10" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="175" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
@@ -6705,17 +7153,21 @@
       <c r="C175" s="19">
         <v>13.196999999999999</v>
       </c>
-      <c r="D175" s="12"/>
+      <c r="D175" s="12" t="s">
+        <v>481</v>
+      </c>
       <c r="E175" s="1" t="s">
         <v>338</v>
       </c>
       <c r="F175" s="18">
         <v>173</v>
       </c>
-      <c r="G175" s="35">
+      <c r="G175" s="32">
         <v>5.0609999999999999</v>
       </c>
-      <c r="H175" s="12"/>
+      <c r="H175" s="12" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="176" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="9" t="s">
@@ -6727,21 +7179,25 @@
       <c r="C176" s="17">
         <v>13.064</v>
       </c>
-      <c r="D176" s="10"/>
+      <c r="D176" s="10" t="s">
+        <v>484</v>
+      </c>
       <c r="E176" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F176" s="16">
         <v>174</v>
       </c>
-      <c r="G176" s="34">
+      <c r="G176" s="31">
         <v>5.0270000000000001</v>
       </c>
-      <c r="H176" s="10"/>
+      <c r="H176" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B177" s="18">
         <v>175</v>
@@ -6749,21 +7205,25 @@
       <c r="C177" s="19">
         <v>12.837</v>
       </c>
-      <c r="D177" s="12"/>
+      <c r="D177" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="E177" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F177" s="18">
         <v>175</v>
       </c>
-      <c r="G177" s="35">
+      <c r="G177" s="32">
         <v>4.9210000000000003</v>
       </c>
-      <c r="H177" s="12"/>
+      <c r="H177" s="12" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B178" s="16">
         <v>176</v>
@@ -6771,17 +7231,21 @@
       <c r="C178" s="17">
         <v>12.83</v>
       </c>
-      <c r="D178" s="10"/>
+      <c r="D178" s="10" t="s">
+        <v>424</v>
+      </c>
       <c r="E178" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F178" s="16">
         <v>176</v>
       </c>
-      <c r="G178" s="34">
+      <c r="G178" s="31">
         <v>4.8689999999999998</v>
       </c>
-      <c r="H178" s="10"/>
+      <c r="H178" s="10" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
@@ -6793,17 +7257,21 @@
       <c r="C179" s="19">
         <v>12.744</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="12" t="s">
+        <v>486</v>
+      </c>
       <c r="E179" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F179" s="18">
         <v>177</v>
       </c>
-      <c r="G179" s="35">
+      <c r="G179" s="32">
         <v>4.8529999999999998</v>
       </c>
-      <c r="H179" s="12"/>
+      <c r="H179" s="12" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="9" t="s">
@@ -6815,17 +7283,21 @@
       <c r="C180" s="17">
         <v>12.047000000000001</v>
       </c>
-      <c r="D180" s="10"/>
+      <c r="D180" s="10" t="s">
+        <v>487</v>
+      </c>
       <c r="E180" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F180" s="16">
         <v>178</v>
       </c>
-      <c r="G180" s="34">
+      <c r="G180" s="31">
         <v>4.82</v>
       </c>
-      <c r="H180" s="10"/>
+      <c r="H180" s="10" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
@@ -6837,17 +7309,21 @@
       <c r="C181" s="19">
         <v>11.804</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="E181" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F181" s="18">
         <v>179</v>
       </c>
-      <c r="G181" s="35">
+      <c r="G181" s="32">
         <v>4.7290000000000001</v>
       </c>
-      <c r="H181" s="12"/>
+      <c r="H181" s="12" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="9" t="s">
@@ -6859,17 +7335,21 @@
       <c r="C182" s="17">
         <v>11.625</v>
       </c>
-      <c r="D182" s="10"/>
+      <c r="D182" s="10" t="s">
+        <v>479</v>
+      </c>
       <c r="E182" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F182" s="16">
         <v>180</v>
       </c>
-      <c r="G182" s="34">
+      <c r="G182" s="31">
         <v>4.6849999999999996</v>
       </c>
-      <c r="H182" s="10"/>
+      <c r="H182" s="10" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
@@ -6881,17 +7361,21 @@
       <c r="C183" s="19">
         <v>11.622</v>
       </c>
-      <c r="D183" s="12"/>
+      <c r="D183" s="12" t="s">
+        <v>490</v>
+      </c>
       <c r="E183" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F183" s="18">
         <v>181</v>
       </c>
-      <c r="G183" s="35">
+      <c r="G183" s="32">
         <v>4.6749999999999998</v>
       </c>
-      <c r="H183" s="12"/>
+      <c r="H183" s="12" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="9" t="s">
@@ -6903,17 +7387,21 @@
       <c r="C184" s="17">
         <v>11.336</v>
       </c>
-      <c r="D184" s="10"/>
+      <c r="D184" s="10" t="s">
+        <v>477</v>
+      </c>
       <c r="E184" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F184" s="16">
         <v>182</v>
       </c>
-      <c r="G184" s="34">
+      <c r="G184" s="31">
         <v>4.6390000000000002</v>
       </c>
-      <c r="H184" s="10"/>
+      <c r="H184" s="10" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
@@ -6925,17 +7413,21 @@
       <c r="C185" s="19">
         <v>11.238</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="12" t="s">
+        <v>491</v>
+      </c>
       <c r="E185" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F185" s="18">
         <v>183</v>
       </c>
-      <c r="G185" s="35">
+      <c r="G185" s="32">
         <v>4.6340000000000003</v>
       </c>
-      <c r="H185" s="12"/>
+      <c r="H185" s="12" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="9" t="s">
@@ -6947,17 +7439,21 @@
       <c r="C186" s="17">
         <v>10.913</v>
       </c>
-      <c r="D186" s="10"/>
+      <c r="D186" s="10" t="s">
+        <v>475</v>
+      </c>
       <c r="E186" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F186" s="16">
         <v>184</v>
       </c>
-      <c r="G186" s="34">
+      <c r="G186" s="31">
         <v>4.593</v>
       </c>
-      <c r="H186" s="10"/>
+      <c r="H186" s="10" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="187" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
@@ -6969,17 +7465,21 @@
       <c r="C187" s="19">
         <v>10.77</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>489</v>
+      </c>
       <c r="E187" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F187" s="18">
         <v>185</v>
       </c>
-      <c r="G187" s="35">
+      <c r="G187" s="32">
         <v>4.4429999999999996</v>
       </c>
-      <c r="H187" s="12"/>
+      <c r="H187" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="9" t="s">
@@ -6991,17 +7491,21 @@
       <c r="C188" s="17">
         <v>10.587</v>
       </c>
-      <c r="D188" s="10"/>
+      <c r="D188" s="10" t="s">
+        <v>480</v>
+      </c>
       <c r="E188" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F188" s="16">
         <v>186</v>
       </c>
-      <c r="G188" s="34">
+      <c r="G188" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H188" s="10"/>
+      <c r="H188" s="10" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
@@ -7013,17 +7517,21 @@
       <c r="C189" s="19">
         <v>10.047000000000001</v>
       </c>
-      <c r="D189" s="12"/>
+      <c r="D189" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="E189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F189" s="18">
         <v>187</v>
       </c>
-      <c r="G189" s="35">
+      <c r="G189" s="32">
         <v>4.399</v>
       </c>
-      <c r="H189" s="12"/>
+      <c r="H189" s="12" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="9" t="s">
@@ -7035,17 +7543,21 @@
       <c r="C190" s="17">
         <v>9.8659999999999997</v>
       </c>
-      <c r="D190" s="10"/>
+      <c r="D190" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="E190" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F190" s="16">
         <v>188</v>
       </c>
-      <c r="G190" s="34">
+      <c r="G190" s="31">
         <v>4.056</v>
       </c>
-      <c r="H190" s="10"/>
+      <c r="H190" s="10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
@@ -7057,17 +7569,21 @@
       <c r="C191" s="19">
         <v>9.5869999999999997</v>
       </c>
-      <c r="D191" s="12"/>
+      <c r="D191" s="12" t="s">
+        <v>516</v>
+      </c>
       <c r="E191" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F191" s="18">
         <v>189</v>
       </c>
-      <c r="G191" s="35">
+      <c r="G191" s="32">
         <v>3.9660000000000002</v>
       </c>
-      <c r="H191" s="12"/>
+      <c r="H191" s="12" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="9" t="s">
@@ -7079,17 +7595,21 @@
       <c r="C192" s="17">
         <v>9.4689999999999994</v>
       </c>
-      <c r="D192" s="10"/>
+      <c r="D192" s="10" t="s">
+        <v>517</v>
+      </c>
       <c r="E192" s="11" t="s">
         <v>147</v>
       </c>
       <c r="F192" s="16">
         <v>190</v>
       </c>
-      <c r="G192" s="34">
+      <c r="G192" s="31">
         <v>3.96</v>
       </c>
-      <c r="H192" s="10"/>
+      <c r="H192" s="10" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
@@ -7101,17 +7621,21 @@
       <c r="C193" s="19">
         <v>9.3650000000000002</v>
       </c>
-      <c r="D193" s="12"/>
+      <c r="D193" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E193" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F193" s="18">
         <v>191</v>
       </c>
-      <c r="G193" s="35">
+      <c r="G193" s="32">
         <v>3.87</v>
       </c>
-      <c r="H193" s="12"/>
+      <c r="H193" s="12" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="9" t="s">
@@ -7123,17 +7647,21 @@
       <c r="C194" s="17">
         <v>9.3149999999999995</v>
       </c>
-      <c r="D194" s="10"/>
+      <c r="D194" s="10" t="s">
+        <v>471</v>
+      </c>
       <c r="E194" s="11" t="s">
         <v>120</v>
       </c>
       <c r="F194" s="16">
         <v>192</v>
       </c>
-      <c r="G194" s="34">
+      <c r="G194" s="31">
         <v>3.722</v>
       </c>
-      <c r="H194" s="10"/>
+      <c r="H194" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
@@ -7145,17 +7673,21 @@
       <c r="C195" s="19">
         <v>9.1660000000000004</v>
       </c>
-      <c r="D195" s="12"/>
+      <c r="D195" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E195" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F195" s="18">
         <v>193</v>
       </c>
-      <c r="G195" s="35">
+      <c r="G195" s="32">
         <v>3.5790000000000002</v>
       </c>
-      <c r="H195" s="12"/>
+      <c r="H195" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="9" t="s">
@@ -7167,17 +7699,21 @@
       <c r="C196" s="17">
         <v>8.59</v>
       </c>
-      <c r="D196" s="10"/>
+      <c r="D196" s="10" t="s">
+        <v>464</v>
+      </c>
       <c r="E196" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F196" s="16">
         <v>194</v>
       </c>
-      <c r="G196" s="34">
+      <c r="G196" s="31">
         <v>3.49</v>
       </c>
-      <c r="H196" s="10"/>
+      <c r="H196" s="10" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
@@ -7189,21 +7725,25 @@
       <c r="C197" s="19">
         <v>8.5860000000000003</v>
       </c>
-      <c r="D197" s="12"/>
+      <c r="D197" s="12" t="s">
+        <v>519</v>
+      </c>
       <c r="E197" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F197" s="18">
         <v>195</v>
       </c>
-      <c r="G197" s="35">
+      <c r="G197" s="32">
         <v>3.2370000000000001</v>
       </c>
-      <c r="H197" s="12"/>
+      <c r="H197" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B198" s="16">
         <v>196</v>
@@ -7211,17 +7751,21 @@
       <c r="C198" s="17">
         <v>8.4969999999999999</v>
       </c>
-      <c r="D198" s="10"/>
+      <c r="D198" s="10" t="s">
+        <v>509</v>
+      </c>
       <c r="E198" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F198" s="16">
         <v>196</v>
       </c>
-      <c r="G198" s="34">
+      <c r="G198" s="31">
         <v>3.1539999999999999</v>
       </c>
-      <c r="H198" s="10"/>
+      <c r="H198" s="10" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
@@ -7233,17 +7777,21 @@
       <c r="C199" s="19">
         <v>8.1359999999999992</v>
       </c>
-      <c r="D199" s="12"/>
+      <c r="D199" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E199" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F199" s="18">
         <v>197</v>
       </c>
-      <c r="G199" s="35">
+      <c r="G199" s="32">
         <v>3.0720000000000001</v>
       </c>
-      <c r="H199" s="12"/>
+      <c r="H199" s="12" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="9" t="s">
@@ -7255,17 +7803,21 @@
       <c r="C200" s="17">
         <v>8.1189999999999998</v>
       </c>
-      <c r="D200" s="10"/>
+      <c r="D200" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="E200" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F200" s="16">
         <v>198</v>
       </c>
-      <c r="G200" s="34">
+      <c r="G200" s="31">
         <v>2.7349999999999999</v>
       </c>
-      <c r="H200" s="10"/>
+      <c r="H200" s="10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
@@ -7277,17 +7829,21 @@
       <c r="C201" s="19">
         <v>7.7210000000000001</v>
       </c>
-      <c r="D201" s="12"/>
+      <c r="D201" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="E201" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F201" s="18">
         <v>199</v>
       </c>
-      <c r="G201" s="35">
+      <c r="G201" s="32">
         <v>2.722</v>
       </c>
-      <c r="H201" s="12"/>
+      <c r="H201" s="12" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="9" t="s">
@@ -7299,17 +7855,21 @@
       <c r="C202" s="17">
         <v>7.5250000000000004</v>
       </c>
-      <c r="D202" s="10"/>
+      <c r="D202" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="E202" s="11" t="s">
         <v>341</v>
       </c>
       <c r="F202" s="16">
         <v>200</v>
       </c>
-      <c r="G202" s="34">
+      <c r="G202" s="31">
         <v>2.6320000000000001</v>
       </c>
-      <c r="H202" s="10"/>
+      <c r="H202" s="10" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
@@ -7321,17 +7881,21 @@
       <c r="C203" s="19">
         <v>7.4740000000000002</v>
       </c>
-      <c r="D203" s="12"/>
+      <c r="D203" s="12" t="s">
+        <v>478</v>
+      </c>
       <c r="E203" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F203" s="18">
         <v>201</v>
       </c>
-      <c r="G203" s="35">
+      <c r="G203" s="32">
         <v>2.5579999999999998</v>
       </c>
-      <c r="H203" s="12"/>
+      <c r="H203" s="12" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="9" t="s">
@@ -7343,17 +7907,21 @@
       <c r="C204" s="17">
         <v>7.1920000000000002</v>
       </c>
-      <c r="D204" s="10"/>
+      <c r="D204" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="E204" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" s="16">
         <v>202</v>
       </c>
-      <c r="G204" s="34">
+      <c r="G204" s="31">
         <v>2.5089999999999999</v>
       </c>
-      <c r="H204" s="10"/>
+      <c r="H204" s="10" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
@@ -7365,17 +7933,21 @@
       <c r="C205" s="19">
         <v>6.1550000000000002</v>
       </c>
-      <c r="D205" s="12"/>
+      <c r="D205" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="E205" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F205" s="18">
         <v>203</v>
       </c>
-      <c r="G205" s="35">
+      <c r="G205" s="32">
         <v>2.387</v>
       </c>
-      <c r="H205" s="12"/>
+      <c r="H205" s="12" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="9" t="s">
@@ -7387,21 +7959,25 @@
       <c r="C206" s="17">
         <v>5.569</v>
       </c>
-      <c r="D206" s="10"/>
+      <c r="D206" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="E206" s="11" t="s">
         <v>158</v>
       </c>
       <c r="F206" s="16">
         <v>204</v>
       </c>
-      <c r="G206" s="34">
+      <c r="G206" s="31">
         <v>2.2360000000000002</v>
       </c>
-      <c r="H206" s="10"/>
+      <c r="H206" s="10" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="207" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B207" s="18">
         <v>205</v>
@@ -7409,17 +7985,21 @@
       <c r="C207" s="19">
         <v>5.2990000000000004</v>
       </c>
-      <c r="D207" s="12"/>
+      <c r="D207" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="E207" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F207" s="18">
         <v>205</v>
       </c>
-      <c r="G207" s="35">
+      <c r="G207" s="32">
         <v>2.1970000000000001</v>
       </c>
-      <c r="H207" s="12"/>
+      <c r="H207" s="12" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="208" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="9" t="s">
@@ -7431,17 +8011,21 @@
       <c r="C208" s="17">
         <v>4.97</v>
       </c>
-      <c r="D208" s="10"/>
+      <c r="D208" s="10" t="s">
+        <v>436</v>
+      </c>
       <c r="E208" s="11" t="s">
         <v>343</v>
       </c>
       <c r="F208" s="16">
         <v>206</v>
       </c>
-      <c r="G208" s="34">
+      <c r="G208" s="31">
         <v>2.153</v>
       </c>
-      <c r="H208" s="10"/>
+      <c r="H208" s="10" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
@@ -7453,17 +8037,21 @@
       <c r="C209" s="19">
         <v>4.452</v>
       </c>
-      <c r="D209" s="12"/>
+      <c r="D209" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E209" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F209" s="18">
         <v>207</v>
       </c>
-      <c r="G209" s="35">
+      <c r="G209" s="32">
         <v>2.089</v>
       </c>
-      <c r="H209" s="12"/>
+      <c r="H209" s="12" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="9" t="s">
@@ -7475,17 +8063,21 @@
       <c r="C210" s="17">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D210" s="10"/>
+      <c r="D210" s="10" t="s">
+        <v>490</v>
+      </c>
       <c r="E210" s="11" t="s">
         <v>162</v>
       </c>
       <c r="F210" s="16">
         <v>208</v>
       </c>
-      <c r="G210" s="34">
+      <c r="G210" s="31">
         <v>1.92</v>
       </c>
-      <c r="H210" s="10"/>
+      <c r="H210" s="10" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="211" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
@@ -7497,17 +8089,21 @@
       <c r="C211" s="15">
         <v>4.4109999999999996</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="7" t="s">
+        <v>466</v>
+      </c>
       <c r="E211" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F211" s="14">
         <v>209</v>
       </c>
-      <c r="G211" s="33">
+      <c r="G211" s="30">
         <v>1.804</v>
       </c>
-      <c r="H211" s="7"/>
+      <c r="H211" s="7" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="9" t="s">
@@ -7519,17 +8115,21 @@
       <c r="C212" s="17">
         <v>4.3250000000000002</v>
       </c>
-      <c r="D212" s="10"/>
+      <c r="D212" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="E212" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F212" s="16">
         <v>210</v>
       </c>
-      <c r="G212" s="34">
+      <c r="G212" s="31">
         <v>1.7929999999999999</v>
       </c>
-      <c r="H212" s="10"/>
+      <c r="H212" s="10" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
@@ -7541,17 +8141,21 @@
       <c r="C213" s="19">
         <v>4.2220000000000004</v>
       </c>
-      <c r="D213" s="12"/>
+      <c r="D213" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="E213" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F213" s="18">
         <v>211</v>
       </c>
-      <c r="G213" s="35">
+      <c r="G213" s="32">
         <v>1.6819999999999999</v>
       </c>
-      <c r="H213" s="12"/>
+      <c r="H213" s="12" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="9" t="s">
@@ -7563,17 +8167,21 @@
       <c r="C214" s="17">
         <v>4.0129999999999999</v>
       </c>
-      <c r="D214" s="10"/>
+      <c r="D214" s="10" t="s">
+        <v>499</v>
+      </c>
       <c r="E214" s="11" t="s">
         <v>345</v>
       </c>
       <c r="F214" s="16">
         <v>212</v>
       </c>
-      <c r="G214" s="34">
+      <c r="G214" s="31">
         <v>1.5780000000000001</v>
       </c>
-      <c r="H214" s="10"/>
+      <c r="H214" s="10" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
@@ -7585,17 +8193,21 @@
       <c r="C215" s="19">
         <v>3.98</v>
       </c>
-      <c r="D215" s="12"/>
+      <c r="D215" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E215" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F215" s="18">
         <v>213</v>
       </c>
-      <c r="G215" s="35">
+      <c r="G215" s="32">
         <v>1.5369999999999999</v>
       </c>
-      <c r="H215" s="12"/>
+      <c r="H215" s="12" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="9" t="s">
@@ -7607,17 +8219,21 @@
       <c r="C216" s="17">
         <v>3.903</v>
       </c>
-      <c r="D216" s="10"/>
+      <c r="D216" s="10" t="s">
+        <v>544</v>
+      </c>
       <c r="E216" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F216" s="16">
         <v>214</v>
       </c>
-      <c r="G216" s="34">
+      <c r="G216" s="31">
         <v>1.5349999999999999</v>
       </c>
-      <c r="H216" s="10"/>
+      <c r="H216" s="10" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
@@ -7629,17 +8245,21 @@
       <c r="C217" s="19">
         <v>3.589</v>
       </c>
-      <c r="D217" s="12"/>
+      <c r="D217" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="E217" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F217" s="18">
         <v>215</v>
       </c>
-      <c r="G217" s="35">
+      <c r="G217" s="32">
         <v>1.534</v>
       </c>
-      <c r="H217" s="12"/>
+      <c r="H217" s="12" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="9" t="s">
@@ -7651,17 +8271,21 @@
       <c r="C218" s="17">
         <v>3.2669999999999999</v>
       </c>
-      <c r="D218" s="10"/>
+      <c r="D218" s="10" t="s">
+        <v>445</v>
+      </c>
       <c r="E218" s="11" t="s">
         <v>169</v>
       </c>
       <c r="F218" s="16">
         <v>216</v>
       </c>
-      <c r="G218" s="34">
+      <c r="G218" s="31">
         <v>1.476</v>
       </c>
-      <c r="H218" s="10"/>
+      <c r="H218" s="10" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
@@ -7673,17 +8297,21 @@
       <c r="C219" s="19">
         <v>3.2639999999999998</v>
       </c>
-      <c r="D219" s="12"/>
+      <c r="D219" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E219" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F219" s="18">
         <v>217</v>
       </c>
-      <c r="G219" s="35">
+      <c r="G219" s="32">
         <v>1.288</v>
       </c>
-      <c r="H219" s="12"/>
+      <c r="H219" s="12" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="9" t="s">
@@ -7695,17 +8323,21 @@
       <c r="C220" s="17">
         <v>3.1459999999999999</v>
       </c>
-      <c r="D220" s="10"/>
+      <c r="D220" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="E220" s="11" t="s">
         <v>330</v>
       </c>
       <c r="F220" s="16">
         <v>218</v>
       </c>
-      <c r="G220" s="34">
+      <c r="G220" s="31">
         <v>1.1519999999999999</v>
       </c>
-      <c r="H220" s="10"/>
+      <c r="H220" s="10" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="221" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
@@ -7717,17 +8349,21 @@
       <c r="C221" s="19">
         <v>2.8180000000000001</v>
       </c>
-      <c r="D221" s="12"/>
+      <c r="D221" s="12" t="s">
+        <v>484</v>
+      </c>
       <c r="E221" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F221" s="18">
         <v>219</v>
       </c>
-      <c r="G221" s="35">
+      <c r="G221" s="32">
         <v>1.0469999999999999</v>
       </c>
-      <c r="H221" s="12"/>
+      <c r="H221" s="12" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="222" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="9" t="s">
@@ -7739,17 +8375,21 @@
       <c r="C222" s="17">
         <v>2.7970000000000002</v>
       </c>
-      <c r="D222" s="10"/>
+      <c r="D222" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="E222" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F222" s="16">
         <v>220</v>
       </c>
-      <c r="G222" s="34">
+      <c r="G222" s="31">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H222" s="10"/>
+      <c r="H222" s="10" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="223" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
@@ -7761,17 +8401,21 @@
       <c r="C223" s="19">
         <v>2.5880000000000001</v>
       </c>
-      <c r="D223" s="12"/>
+      <c r="D223" s="12" t="s">
+        <v>303</v>
+      </c>
       <c r="E223" s="1" t="s">
         <v>346</v>
       </c>
       <c r="F223" s="18">
         <v>221</v>
       </c>
-      <c r="G223" s="35">
+      <c r="G223" s="32">
         <v>0.83099999999999996</v>
       </c>
-      <c r="H223" s="12"/>
+      <c r="H223" s="12" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="224" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="9" t="s">
@@ -7783,17 +8427,21 @@
       <c r="C224" s="17">
         <v>1.9730000000000001</v>
       </c>
-      <c r="D224" s="10"/>
+      <c r="D224" s="10" t="s">
+        <v>550</v>
+      </c>
       <c r="E224" s="11" t="s">
         <v>172</v>
       </c>
       <c r="F224" s="16">
         <v>222</v>
       </c>
-      <c r="G224" s="34">
+      <c r="G224" s="31">
         <v>0.745</v>
       </c>
-      <c r="H224" s="10"/>
+      <c r="H224" s="10" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="225" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
@@ -7805,17 +8453,21 @@
       <c r="C225" s="19">
         <v>1.764</v>
       </c>
-      <c r="D225" s="12"/>
+      <c r="D225" s="12" t="s">
+        <v>436</v>
+      </c>
       <c r="E225" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F225" s="18">
         <v>223</v>
       </c>
-      <c r="G225" s="35">
+      <c r="G225" s="32">
         <v>0.626</v>
       </c>
-      <c r="H225" s="12"/>
+      <c r="H225" s="12" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="226" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="9" t="s">
@@ -7827,17 +8479,21 @@
       <c r="C226" s="17">
         <v>1.6950000000000001</v>
       </c>
-      <c r="D226" s="10"/>
+      <c r="D226" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="E226" s="11" t="s">
         <v>174</v>
       </c>
       <c r="F226" s="16">
         <v>224</v>
       </c>
-      <c r="G226" s="34">
+      <c r="G226" s="31">
         <v>0.59599999999999997</v>
       </c>
-      <c r="H226" s="10"/>
+      <c r="H226" s="10" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="227" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
@@ -7849,17 +8505,21 @@
       <c r="C227" s="19">
         <v>1.502</v>
       </c>
-      <c r="D227" s="12"/>
+      <c r="D227" s="12" t="s">
+        <v>519</v>
+      </c>
       <c r="E227" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F227" s="18">
         <v>225</v>
       </c>
-      <c r="G227" s="35">
+      <c r="G227" s="32">
         <v>0.53</v>
       </c>
-      <c r="H227" s="12"/>
+      <c r="H227" s="12" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="228" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="9" t="s">
@@ -7871,17 +8531,21 @@
       <c r="C228" s="17">
         <v>1.4039999999999999</v>
       </c>
-      <c r="D228" s="10"/>
+      <c r="D228" s="10" t="s">
+        <v>549</v>
+      </c>
       <c r="E228" s="11" t="s">
         <v>161</v>
       </c>
       <c r="F228" s="16">
         <v>226</v>
       </c>
-      <c r="G228" s="34">
+      <c r="G228" s="31">
         <v>0.41499999999999998</v>
       </c>
-      <c r="H228" s="10"/>
+      <c r="H228" s="10" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="229" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
@@ -7893,21 +8557,25 @@
       <c r="C229" s="19">
         <v>1.3939999999999999</v>
       </c>
-      <c r="D229" s="12"/>
+      <c r="D229" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="E229" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F229" s="18">
         <v>227</v>
       </c>
-      <c r="G229" s="35">
+      <c r="G229" s="32">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H229" s="12"/>
+      <c r="H229" s="12" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="230" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B230" s="16">
         <v>228</v>
@@ -7915,17 +8583,21 @@
       <c r="C230" s="17">
         <v>1.1579999999999999</v>
       </c>
-      <c r="D230" s="10"/>
+      <c r="D230" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="E230" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F230" s="16">
         <v>228</v>
       </c>
-      <c r="G230" s="34">
+      <c r="G230" s="31">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H230" s="10"/>
+      <c r="H230" s="10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="231" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
@@ -7937,17 +8609,21 @@
       <c r="C231" s="19">
         <v>1.0069999999999999</v>
       </c>
-      <c r="D231" s="12"/>
+      <c r="D231" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="E231" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F231" s="18">
         <v>229</v>
       </c>
-      <c r="G231" s="35">
+      <c r="G231" s="32">
         <v>0.21</v>
       </c>
-      <c r="H231" s="12"/>
+      <c r="H231" s="12" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="232" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="9" t="s">
@@ -7959,17 +8635,21 @@
       <c r="C232" s="17">
         <v>0.90200000000000002</v>
       </c>
-      <c r="D232" s="10"/>
+      <c r="D232" s="10" t="s">
+        <v>554</v>
+      </c>
       <c r="E232" s="11" t="s">
         <v>179</v>
       </c>
       <c r="F232" s="16">
         <v>230</v>
       </c>
-      <c r="G232" s="34">
+      <c r="G232" s="31">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H232" s="10"/>
+      <c r="H232" s="10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="233" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
@@ -7981,17 +8661,21 @@
       <c r="C233" s="19">
         <v>0.86</v>
       </c>
-      <c r="D233" s="12"/>
+      <c r="D233" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="E233" s="1" t="s">
-        <v>348</v>
+        <v>558</v>
       </c>
       <c r="F233" s="18">
         <v>231</v>
       </c>
-      <c r="G233" s="35">
+      <c r="G233" s="32">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="H233" s="12"/>
+      <c r="H233" s="12" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="9" t="s">
@@ -8003,17 +8687,21 @@
       <c r="C234" s="17">
         <v>0.185</v>
       </c>
-      <c r="D234" s="10"/>
+      <c r="D234" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="E234" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F234" s="16">
         <v>232</v>
       </c>
-      <c r="G234" s="34">
+      <c r="G234" s="31">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="H234" s="10"/>
+      <c r="H234" s="10" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="235" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
@@ -8025,21 +8713,25 @@
       <c r="C235" s="19">
         <v>-0.02</v>
       </c>
-      <c r="D235" s="12"/>
+      <c r="D235" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="E235" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F235" s="18">
         <v>233</v>
       </c>
-      <c r="G235" s="35">
+      <c r="G235" s="32">
         <v>-0.183</v>
       </c>
-      <c r="H235" s="12"/>
+      <c r="H235" s="12" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="236" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B236" s="16">
         <v>234</v>
@@ -8047,17 +8739,21 @@
       <c r="C236" s="17">
         <v>-0.32200000000000001</v>
       </c>
-      <c r="D236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="E236" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F236" s="16">
         <v>234</v>
       </c>
-      <c r="G236" s="34">
+      <c r="G236" s="31">
         <v>-0.308</v>
       </c>
-      <c r="H236" s="10"/>
+      <c r="H236" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="237" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
@@ -8069,17 +8765,21 @@
       <c r="C237" s="19">
         <v>-0.39</v>
       </c>
-      <c r="D237" s="12"/>
+      <c r="D237" s="12" t="s">
+        <v>471</v>
+      </c>
       <c r="E237" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F237" s="18">
         <v>235</v>
       </c>
-      <c r="G237" s="35">
+      <c r="G237" s="32">
         <v>-0.32500000000000001</v>
       </c>
-      <c r="H237" s="12"/>
+      <c r="H237" s="12" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="238" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="9" t="s">
@@ -8091,17 +8791,21 @@
       <c r="C238" s="17">
         <v>-0.54400000000000004</v>
       </c>
-      <c r="D238" s="10"/>
+      <c r="D238" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="E238" s="11" t="s">
         <v>185</v>
       </c>
       <c r="F238" s="16">
         <v>236</v>
       </c>
-      <c r="G238" s="34">
+      <c r="G238" s="31">
         <v>-0.39900000000000002</v>
       </c>
-      <c r="H238" s="10"/>
+      <c r="H238" s="10" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="239" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
@@ -8113,17 +8817,21 @@
       <c r="C239" s="19">
         <v>-0.82099999999999995</v>
       </c>
-      <c r="D239" s="12"/>
+      <c r="D239" s="12" t="s">
+        <v>556</v>
+      </c>
       <c r="E239" s="1" t="s">
         <v>349</v>
       </c>
       <c r="F239" s="18">
         <v>237</v>
       </c>
-      <c r="G239" s="35">
+      <c r="G239" s="32">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="H239" s="12"/>
+      <c r="H239" s="12" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="240" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="9" t="s">
@@ -8135,17 +8843,21 @@
       <c r="C240" s="17">
         <v>-0.96299999999999997</v>
       </c>
-      <c r="D240" s="10"/>
+      <c r="D240" s="10" t="s">
+        <v>553</v>
+      </c>
       <c r="E240" s="11" t="s">
         <v>186</v>
       </c>
       <c r="F240" s="16">
         <v>238</v>
       </c>
-      <c r="G240" s="34">
+      <c r="G240" s="31">
         <v>-0.48</v>
       </c>
-      <c r="H240" s="10"/>
+      <c r="H240" s="10" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
@@ -8157,17 +8869,21 @@
       <c r="C241" s="19">
         <v>-1.381</v>
       </c>
-      <c r="D241" s="12"/>
+      <c r="D241" s="12" t="s">
+        <v>548</v>
+      </c>
       <c r="E241" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F241" s="18">
         <v>239</v>
       </c>
-      <c r="G241" s="35">
+      <c r="G241" s="32">
         <v>-0.48099999999999998</v>
       </c>
-      <c r="H241" s="12"/>
+      <c r="H241" s="12" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="9" t="s">
@@ -8179,21 +8895,25 @@
       <c r="C242" s="17">
         <v>-1.73</v>
       </c>
-      <c r="D242" s="10"/>
+      <c r="D242" s="10" t="s">
+        <v>508</v>
+      </c>
       <c r="E242" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F242" s="16">
         <v>240</v>
       </c>
-      <c r="G242" s="34">
+      <c r="G242" s="31">
         <v>-0.52400000000000002</v>
       </c>
-      <c r="H242" s="10"/>
+      <c r="H242" s="10" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="243" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B243" s="18">
         <v>241</v>
@@ -8201,17 +8921,21 @@
       <c r="C243" s="19">
         <v>-1.784</v>
       </c>
-      <c r="D243" s="12"/>
+      <c r="D243" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E243" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F243" s="18">
         <v>241</v>
       </c>
-      <c r="G243" s="35">
+      <c r="G243" s="32">
         <v>-0.56399999999999995</v>
       </c>
-      <c r="H243" s="12"/>
+      <c r="H243" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="244" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="9" t="s">
@@ -8223,17 +8947,21 @@
       <c r="C244" s="17">
         <v>-1.833</v>
       </c>
-      <c r="D244" s="10"/>
+      <c r="D244" s="10" t="s">
+        <v>555</v>
+      </c>
       <c r="E244" s="11" t="s">
         <v>173</v>
       </c>
       <c r="F244" s="16">
         <v>242</v>
       </c>
-      <c r="G244" s="34">
+      <c r="G244" s="31">
         <v>-0.745</v>
       </c>
-      <c r="H244" s="10"/>
+      <c r="H244" s="10" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="245" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
@@ -8245,17 +8973,21 @@
       <c r="C245" s="19">
         <v>-2.04</v>
       </c>
-      <c r="D245" s="12"/>
+      <c r="D245" s="12" t="s">
+        <v>478</v>
+      </c>
       <c r="E245" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F245" s="18">
         <v>243</v>
       </c>
-      <c r="G245" s="35">
+      <c r="G245" s="32">
         <v>-0.874</v>
       </c>
-      <c r="H245" s="12"/>
+      <c r="H245" s="12" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="246" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="9" t="s">
@@ -8267,17 +8999,21 @@
       <c r="C246" s="17">
         <v>-2.0950000000000002</v>
       </c>
-      <c r="D246" s="10"/>
+      <c r="D246" s="10" t="s">
+        <v>459</v>
+      </c>
       <c r="E246" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F246" s="16">
         <v>244</v>
       </c>
-      <c r="G246" s="34">
+      <c r="G246" s="31">
         <v>-0.92900000000000005</v>
       </c>
-      <c r="H246" s="10"/>
+      <c r="H246" s="10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="247" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
@@ -8289,17 +9025,21 @@
       <c r="C247" s="19">
         <v>-2.2410000000000001</v>
       </c>
-      <c r="D247" s="12"/>
+      <c r="D247" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="E247" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F247" s="18">
         <v>245</v>
       </c>
-      <c r="G247" s="35">
+      <c r="G247" s="32">
         <v>-0.93400000000000005</v>
       </c>
-      <c r="H247" s="12"/>
+      <c r="H247" s="12" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="248" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="9" t="s">
@@ -8311,17 +9051,21 @@
       <c r="C248" s="17">
         <v>-2.7789999999999999</v>
       </c>
-      <c r="D248" s="10"/>
+      <c r="D248" s="10" t="s">
+        <v>446</v>
+      </c>
       <c r="E248" s="11" t="s">
         <v>189</v>
       </c>
       <c r="F248" s="16">
         <v>246</v>
       </c>
-      <c r="G248" s="34">
+      <c r="G248" s="31">
         <v>-1.093</v>
       </c>
-      <c r="H248" s="10"/>
+      <c r="H248" s="10" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="249" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
@@ -8333,17 +9077,21 @@
       <c r="C249" s="19">
         <v>-3.3620000000000001</v>
       </c>
-      <c r="D249" s="12"/>
+      <c r="D249" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="E249" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F249" s="18">
         <v>247</v>
       </c>
-      <c r="G249" s="35">
+      <c r="G249" s="32">
         <v>-1.2669999999999999</v>
       </c>
-      <c r="H249" s="12"/>
+      <c r="H249" s="12" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="250" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="9" t="s">
@@ -8355,17 +9103,21 @@
       <c r="C250" s="17">
         <v>-3.7109999999999999</v>
       </c>
-      <c r="D250" s="10"/>
+      <c r="D250" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="E250" s="11" t="s">
         <v>175</v>
       </c>
       <c r="F250" s="16">
         <v>248</v>
       </c>
-      <c r="G250" s="34">
+      <c r="G250" s="31">
         <v>-1.5840000000000001</v>
       </c>
-      <c r="H250" s="10"/>
+      <c r="H250" s="10" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="251" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
@@ -8377,17 +9129,21 @@
       <c r="C251" s="19">
         <v>-3.7919999999999998</v>
       </c>
-      <c r="D251" s="12"/>
+      <c r="D251" s="12" t="s">
+        <v>518</v>
+      </c>
       <c r="E251" s="1" t="s">
         <v>344</v>
       </c>
       <c r="F251" s="18">
         <v>249</v>
       </c>
-      <c r="G251" s="35">
+      <c r="G251" s="32">
         <v>-1.752</v>
       </c>
-      <c r="H251" s="12"/>
+      <c r="H251" s="12" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="252" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="9" t="s">
@@ -8399,17 +9155,21 @@
       <c r="C252" s="17">
         <v>-3.89</v>
       </c>
-      <c r="D252" s="10"/>
+      <c r="D252" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="E252" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F252" s="16">
         <v>250</v>
       </c>
-      <c r="G252" s="34">
+      <c r="G252" s="31">
         <v>-2.0640000000000001</v>
       </c>
-      <c r="H252" s="10"/>
+      <c r="H252" s="10" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="253" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
@@ -8421,17 +9181,21 @@
       <c r="C253" s="19">
         <v>-4.3209999999999997</v>
       </c>
-      <c r="D253" s="12"/>
+      <c r="D253" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="E253" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F253" s="18">
         <v>251</v>
       </c>
-      <c r="G253" s="35">
+      <c r="G253" s="32">
         <v>-2.1589999999999998</v>
       </c>
-      <c r="H253" s="12"/>
+      <c r="H253" s="12" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="254" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="20" t="s">
@@ -8440,20 +9204,24 @@
       <c r="B254" s="21">
         <v>252</v>
       </c>
-      <c r="C254" s="36">
+      <c r="C254" s="33">
         <v>-4.7619999999999996</v>
       </c>
-      <c r="D254" s="22"/>
+      <c r="D254" s="22" t="s">
+        <v>477</v>
+      </c>
       <c r="E254" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F254" s="21">
         <v>252</v>
       </c>
-      <c r="G254" s="37">
+      <c r="G254" s="34">
         <v>-2.258</v>
       </c>
-      <c r="H254" s="22"/>
+      <c r="H254" s="22" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="255" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
@@ -8465,21 +9233,25 @@
       <c r="C255" s="19">
         <v>-4.8049999999999997</v>
       </c>
-      <c r="D255" s="12"/>
+      <c r="D255" s="12" t="s">
+        <v>376</v>
+      </c>
       <c r="E255" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F255" s="18">
         <v>253</v>
       </c>
-      <c r="G255" s="35">
+      <c r="G255" s="32">
         <v>-2.2719999999999998</v>
       </c>
-      <c r="H255" s="12"/>
+      <c r="H255" s="12" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="256" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B256" s="16">
         <v>254</v>
@@ -8487,17 +9259,21 @@
       <c r="C256" s="17">
         <v>-5.6239999999999997</v>
       </c>
-      <c r="D256" s="10"/>
+      <c r="D256" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="E256" s="11" t="s">
         <v>193</v>
       </c>
       <c r="F256" s="16">
         <v>254</v>
       </c>
-      <c r="G256" s="34">
+      <c r="G256" s="31">
         <v>-2.4350000000000001</v>
       </c>
-      <c r="H256" s="10"/>
+      <c r="H256" s="10" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="257" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
@@ -8509,17 +9285,21 @@
       <c r="C257" s="19">
         <v>-6.0579999999999998</v>
       </c>
-      <c r="D257" s="12"/>
+      <c r="D257" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="E257" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F257" s="18">
         <v>255</v>
       </c>
-      <c r="G257" s="35">
+      <c r="G257" s="32">
         <v>-2.7890000000000001</v>
       </c>
-      <c r="H257" s="12"/>
+      <c r="H257" s="12" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="258" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="9" t="s">
@@ -8531,17 +9311,21 @@
       <c r="C258" s="17">
         <v>-6.2939999999999996</v>
       </c>
-      <c r="D258" s="10"/>
+      <c r="D258" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="E258" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F258" s="16">
         <v>256</v>
       </c>
-      <c r="G258" s="34">
+      <c r="G258" s="31">
         <v>-3.18</v>
       </c>
-      <c r="H258" s="10"/>
+      <c r="H258" s="10" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="259" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
@@ -8553,17 +9337,21 @@
       <c r="C259" s="19">
         <v>-6.4180000000000001</v>
       </c>
-      <c r="D259" s="12"/>
+      <c r="D259" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="E259" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F259" s="18">
         <v>257</v>
       </c>
-      <c r="G259" s="35">
+      <c r="G259" s="32">
         <v>-3.4249999999999998</v>
       </c>
-      <c r="H259" s="12"/>
+      <c r="H259" s="12" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="260" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
@@ -8575,17 +9363,21 @@
       <c r="C260" s="17">
         <v>-6.6379999999999999</v>
       </c>
-      <c r="D260" s="10"/>
+      <c r="D260" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="E260" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F260" s="16">
         <v>258</v>
       </c>
-      <c r="G260" s="34">
+      <c r="G260" s="31">
         <v>-3.5179999999999998</v>
       </c>
-      <c r="H260" s="10"/>
+      <c r="H260" s="10" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="261" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
@@ -8597,17 +9389,21 @@
       <c r="C261" s="19">
         <v>-7.6130000000000004</v>
       </c>
-      <c r="D261" s="12"/>
+      <c r="D261" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="E261" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F261" s="18">
         <v>259</v>
       </c>
-      <c r="G261" s="35">
+      <c r="G261" s="32">
         <v>-3.6440000000000001</v>
       </c>
-      <c r="H261" s="12"/>
+      <c r="H261" s="12" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="262" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="9" t="s">
@@ -8619,17 +9415,21 @@
       <c r="C262" s="17">
         <v>-8.1560000000000006</v>
       </c>
-      <c r="D262" s="10"/>
+      <c r="D262" s="10" t="s">
+        <v>439</v>
+      </c>
       <c r="E262" s="11" t="s">
         <v>198</v>
       </c>
       <c r="F262" s="16">
         <v>260</v>
       </c>
-      <c r="G262" s="34">
+      <c r="G262" s="31">
         <v>-3.714</v>
       </c>
-      <c r="H262" s="10"/>
+      <c r="H262" s="10" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="263" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
@@ -8641,17 +9441,21 @@
       <c r="C263" s="19">
         <v>-8.7110000000000003</v>
       </c>
-      <c r="D263" s="12"/>
+      <c r="D263" s="12" t="s">
+        <v>298</v>
+      </c>
       <c r="E263" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F263" s="18">
         <v>261</v>
       </c>
-      <c r="G263" s="35">
+      <c r="G263" s="32">
         <v>-3.7189999999999999</v>
       </c>
-      <c r="H263" s="12"/>
+      <c r="H263" s="12" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="264" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="9" t="s">
@@ -8663,17 +9467,21 @@
       <c r="C264" s="17">
         <v>-9.2390000000000008</v>
       </c>
-      <c r="D264" s="10"/>
+      <c r="D264" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="E264" s="11" t="s">
         <v>200</v>
       </c>
       <c r="F264" s="16">
         <v>262</v>
       </c>
-      <c r="G264" s="34">
+      <c r="G264" s="31">
         <v>-4.0730000000000004</v>
       </c>
-      <c r="H264" s="10"/>
+      <c r="H264" s="10" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="265" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
@@ -8685,17 +9493,21 @@
       <c r="C265" s="19">
         <v>-9.3369999999999997</v>
       </c>
-      <c r="D265" s="12"/>
+      <c r="D265" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E265" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F265" s="18">
         <v>263</v>
       </c>
-      <c r="G265" s="35">
+      <c r="G265" s="32">
         <v>-4.3920000000000003</v>
       </c>
-      <c r="H265" s="12"/>
+      <c r="H265" s="12" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="266" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="9" t="s">
@@ -8707,17 +9519,21 @@
       <c r="C266" s="17">
         <v>-9.8629999999999995</v>
       </c>
-      <c r="D266" s="10"/>
+      <c r="D266" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="E266" s="11" t="s">
         <v>197</v>
       </c>
       <c r="F266" s="16">
         <v>264</v>
       </c>
-      <c r="G266" s="34">
+      <c r="G266" s="31">
         <v>-4.7549999999999999</v>
       </c>
-      <c r="H266" s="10"/>
+      <c r="H266" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="267" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
@@ -8729,17 +9545,21 @@
       <c r="C267" s="19">
         <v>-10.037000000000001</v>
       </c>
-      <c r="D267" s="12"/>
+      <c r="D267" s="12" t="s">
+        <v>536</v>
+      </c>
       <c r="E267" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F267" s="18">
         <v>265</v>
       </c>
-      <c r="G267" s="35">
+      <c r="G267" s="32">
         <v>-4.9829999999999997</v>
       </c>
-      <c r="H267" s="12"/>
+      <c r="H267" s="12" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="268" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="9" t="s">
@@ -8751,17 +9571,21 @@
       <c r="C268" s="17">
         <v>-10.23</v>
       </c>
-      <c r="D268" s="10"/>
+      <c r="D268" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="E268" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F268" s="16">
         <v>266</v>
       </c>
-      <c r="G268" s="34">
+      <c r="G268" s="31">
         <v>-5.0010000000000003</v>
       </c>
-      <c r="H268" s="10"/>
+      <c r="H268" s="10" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="269" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
@@ -8773,21 +9597,25 @@
       <c r="C269" s="19">
         <v>-11.329000000000001</v>
       </c>
-      <c r="D269" s="12"/>
+      <c r="D269" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="E269" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F269" s="18">
         <v>267</v>
       </c>
-      <c r="G269" s="35">
+      <c r="G269" s="32">
         <v>-5.0389999999999997</v>
       </c>
-      <c r="H269" s="12"/>
+      <c r="H269" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="270" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B270" s="16">
         <v>268</v>
@@ -8795,17 +9623,21 @@
       <c r="C270" s="17">
         <v>-11.843</v>
       </c>
-      <c r="D270" s="10"/>
+      <c r="D270" s="10" t="s">
+        <v>546</v>
+      </c>
       <c r="E270" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F270" s="16">
         <v>268</v>
       </c>
-      <c r="G270" s="34">
+      <c r="G270" s="31">
         <v>-5.2569999999999997</v>
       </c>
-      <c r="H270" s="10"/>
+      <c r="H270" s="10" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="271" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="2" t="s">
@@ -8817,17 +9649,21 @@
       <c r="C271" s="19">
         <v>-12.006</v>
       </c>
-      <c r="D271" s="12"/>
+      <c r="D271" s="12" t="s">
+        <v>463</v>
+      </c>
       <c r="E271" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F271" s="18">
         <v>269</v>
       </c>
-      <c r="G271" s="35">
+      <c r="G271" s="32">
         <v>-5.39</v>
       </c>
-      <c r="H271" s="12"/>
+      <c r="H271" s="12" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="272" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="9" t="s">
@@ -8839,17 +9675,21 @@
       <c r="C272" s="17">
         <v>-12.045</v>
       </c>
-      <c r="D272" s="10"/>
+      <c r="D272" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="E272" s="11" t="s">
         <v>203</v>
       </c>
       <c r="F272" s="16">
         <v>270</v>
       </c>
-      <c r="G272" s="34">
+      <c r="G272" s="31">
         <v>-5.4660000000000002</v>
       </c>
-      <c r="H272" s="10"/>
+      <c r="H272" s="10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="273" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
@@ -8861,17 +9701,21 @@
       <c r="C273" s="19">
         <v>-12.182</v>
       </c>
-      <c r="D273" s="12"/>
+      <c r="D273" s="12" t="s">
+        <v>547</v>
+      </c>
       <c r="E273" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F273" s="18">
         <v>271</v>
       </c>
-      <c r="G273" s="35">
+      <c r="G273" s="32">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="H273" s="12"/>
+      <c r="H273" s="12" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="274" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="9" t="s">
@@ -8883,17 +9727,21 @@
       <c r="C274" s="17">
         <v>-12.712</v>
       </c>
-      <c r="D274" s="10"/>
+      <c r="D274" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="E274" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F274" s="16">
         <v>272</v>
       </c>
-      <c r="G274" s="34">
+      <c r="G274" s="31">
         <v>-5.6909999999999998</v>
       </c>
-      <c r="H274" s="10"/>
+      <c r="H274" s="10" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="275" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
@@ -8905,17 +9753,21 @@
       <c r="C275" s="19">
         <v>-13.292</v>
       </c>
-      <c r="D275" s="12"/>
+      <c r="D275" s="12" t="s">
+        <v>449</v>
+      </c>
       <c r="E275" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F275" s="18">
         <v>273</v>
       </c>
-      <c r="G275" s="35">
+      <c r="G275" s="32">
         <v>-5.76</v>
       </c>
-      <c r="H275" s="12"/>
+      <c r="H275" s="12" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="276" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="9" t="s">
@@ -8927,21 +9779,25 @@
       <c r="C276" s="17">
         <v>-13.669</v>
       </c>
-      <c r="D276" s="10"/>
+      <c r="D276" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="E276" s="11" t="s">
         <v>207</v>
       </c>
       <c r="F276" s="16">
         <v>274</v>
       </c>
-      <c r="G276" s="34">
+      <c r="G276" s="31">
         <v>-6.11</v>
       </c>
-      <c r="H276" s="10"/>
+      <c r="H276" s="10" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="277" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B277" s="18">
         <v>275</v>
@@ -8949,17 +9805,21 @@
       <c r="C277" s="19">
         <v>-14.807</v>
       </c>
-      <c r="D277" s="12"/>
+      <c r="D277" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E277" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F277" s="18">
         <v>275</v>
       </c>
-      <c r="G277" s="35">
+      <c r="G277" s="32">
         <v>-6.4269999999999996</v>
       </c>
-      <c r="H277" s="12"/>
+      <c r="H277" s="12" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="278" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="9" t="s">
@@ -8971,21 +9831,25 @@
       <c r="C278" s="17">
         <v>-14.877000000000001</v>
       </c>
-      <c r="D278" s="10"/>
+      <c r="D278" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="E278" s="11" t="s">
         <v>352</v>
       </c>
       <c r="F278" s="16">
         <v>276</v>
       </c>
-      <c r="G278" s="34">
+      <c r="G278" s="31">
         <v>-6.5739999999999998</v>
       </c>
-      <c r="H278" s="10"/>
+      <c r="H278" s="10" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="279" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B279" s="18">
         <v>277</v>
@@ -8993,17 +9857,21 @@
       <c r="C279" s="19">
         <v>-15.305</v>
       </c>
-      <c r="D279" s="12"/>
+      <c r="D279" s="12" t="s">
+        <v>370</v>
+      </c>
       <c r="E279" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F279" s="18">
         <v>277</v>
       </c>
-      <c r="G279" s="35">
+      <c r="G279" s="32">
         <v>-6.6230000000000002</v>
       </c>
-      <c r="H279" s="12"/>
+      <c r="H279" s="12" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="280" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
@@ -9015,17 +9883,21 @@
       <c r="C280" s="17">
         <v>-15.388999999999999</v>
       </c>
-      <c r="D280" s="10"/>
+      <c r="D280" s="10" t="s">
+        <v>430</v>
+      </c>
       <c r="E280" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F280" s="16">
         <v>278</v>
       </c>
-      <c r="G280" s="34">
+      <c r="G280" s="31">
         <v>-6.6680000000000001</v>
       </c>
-      <c r="H280" s="10"/>
+      <c r="H280" s="10" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="281" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="2" t="s">
@@ -9037,17 +9909,21 @@
       <c r="C281" s="19">
         <v>-16.113</v>
       </c>
-      <c r="D281" s="12"/>
+      <c r="D281" s="12" t="s">
+        <v>539</v>
+      </c>
       <c r="E281" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F281" s="18">
         <v>279</v>
       </c>
-      <c r="G281" s="35">
+      <c r="G281" s="32">
         <v>-6.968</v>
       </c>
-      <c r="H281" s="12"/>
+      <c r="H281" s="12" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="282" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="9" t="s">
@@ -9059,17 +9935,21 @@
       <c r="C282" s="17">
         <v>-17.478000000000002</v>
       </c>
-      <c r="D282" s="10"/>
+      <c r="D282" s="10" t="s">
+        <v>415</v>
+      </c>
       <c r="E282" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F282" s="16">
         <v>280</v>
       </c>
-      <c r="G282" s="34">
+      <c r="G282" s="31">
         <v>-7.109</v>
       </c>
-      <c r="H282" s="10"/>
+      <c r="H282" s="10" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2" t="s">
@@ -9081,17 +9961,21 @@
       <c r="C283" s="19">
         <v>-18.202000000000002</v>
       </c>
-      <c r="D283" s="12"/>
+      <c r="D283" s="12" t="s">
+        <v>535</v>
+      </c>
       <c r="E283" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F283" s="18">
         <v>281</v>
       </c>
-      <c r="G283" s="35">
+      <c r="G283" s="32">
         <v>-8.4689999999999994</v>
       </c>
-      <c r="H283" s="12"/>
+      <c r="H283" s="12" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="284" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
@@ -9103,17 +9987,21 @@
       <c r="C284" s="17">
         <v>-18.283000000000001</v>
       </c>
-      <c r="D284" s="10"/>
+      <c r="D284" s="10" t="s">
+        <v>535</v>
+      </c>
       <c r="E284" s="11" t="s">
         <v>216</v>
       </c>
       <c r="F284" s="16">
         <v>282</v>
       </c>
-      <c r="G284" s="34">
+      <c r="G284" s="31">
         <v>-8.5609999999999999</v>
       </c>
-      <c r="H284" s="10"/>
+      <c r="H284" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="285" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="2" t="s">
@@ -9125,17 +10013,21 @@
       <c r="C285" s="19">
         <v>-19.736999999999998</v>
       </c>
-      <c r="D285" s="12"/>
+      <c r="D285" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E285" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F285" s="18">
         <v>283</v>
       </c>
-      <c r="G285" s="35">
+      <c r="G285" s="32">
         <v>-8.6859999999999999</v>
       </c>
-      <c r="H285" s="12"/>
+      <c r="H285" s="12" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="286" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
@@ -9147,17 +10039,21 @@
       <c r="C286" s="17">
         <v>-20.895</v>
       </c>
-      <c r="D286" s="10"/>
+      <c r="D286" s="10" t="s">
+        <v>538</v>
+      </c>
       <c r="E286" s="11" t="s">
         <v>218</v>
       </c>
       <c r="F286" s="16">
         <v>284</v>
       </c>
-      <c r="G286" s="34">
+      <c r="G286" s="31">
         <v>-9.3800000000000008</v>
       </c>
-      <c r="H286" s="10"/>
+      <c r="H286" s="10" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="287" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
@@ -9169,17 +10065,21 @@
       <c r="C287" s="19">
         <v>-21.27</v>
       </c>
-      <c r="D287" s="12"/>
+      <c r="D287" s="12" t="s">
+        <v>528</v>
+      </c>
       <c r="E287" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F287" s="18">
         <v>285</v>
       </c>
-      <c r="G287" s="35">
+      <c r="G287" s="32">
         <v>-9.5069999999999997</v>
       </c>
-      <c r="H287" s="12"/>
+      <c r="H287" s="12" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="288" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
@@ -9191,17 +10091,21 @@
       <c r="C288" s="17">
         <v>-21.337</v>
       </c>
-      <c r="D288" s="10"/>
+      <c r="D288" s="10" t="s">
+        <v>537</v>
+      </c>
       <c r="E288" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F288" s="16">
         <v>286</v>
       </c>
-      <c r="G288" s="34">
+      <c r="G288" s="31">
         <v>-9.5329999999999995</v>
       </c>
-      <c r="H288" s="10"/>
+      <c r="H288" s="10" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="289" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
@@ -9213,17 +10117,21 @@
       <c r="C289" s="19">
         <v>-23.283999999999999</v>
       </c>
-      <c r="D289" s="12"/>
+      <c r="D289" s="12" t="s">
+        <v>536</v>
+      </c>
       <c r="E289" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F289" s="18">
         <v>287</v>
       </c>
-      <c r="G289" s="35">
+      <c r="G289" s="32">
         <v>-9.6069999999999993</v>
       </c>
-      <c r="H289" s="12"/>
+      <c r="H289" s="12" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="290" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
@@ -9235,17 +10143,21 @@
       <c r="C290" s="17">
         <v>-24.619</v>
       </c>
-      <c r="D290" s="10"/>
+      <c r="D290" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="E290" s="11" t="s">
         <v>215</v>
       </c>
       <c r="F290" s="16">
         <v>288</v>
       </c>
-      <c r="G290" s="34">
+      <c r="G290" s="31">
         <v>-9.9440000000000008</v>
       </c>
-      <c r="H290" s="10"/>
+      <c r="H290" s="10" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="291" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
@@ -9257,17 +10169,21 @@
       <c r="C291" s="19">
         <v>-25.449000000000002</v>
       </c>
-      <c r="D291" s="12"/>
+      <c r="D291" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="E291" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F291" s="18">
         <v>289</v>
       </c>
-      <c r="G291" s="35">
+      <c r="G291" s="32">
         <v>-10.471</v>
       </c>
-      <c r="H291" s="12"/>
+      <c r="H291" s="12" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="292" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="9" t="s">
@@ -9279,17 +10195,21 @@
       <c r="C292" s="17">
         <v>-25.742000000000001</v>
       </c>
-      <c r="D292" s="10"/>
+      <c r="D292" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="E292" s="11" t="s">
         <v>353</v>
       </c>
       <c r="F292" s="16">
         <v>290</v>
       </c>
-      <c r="G292" s="34">
+      <c r="G292" s="31">
         <v>-11.023</v>
       </c>
-      <c r="H292" s="10"/>
+      <c r="H292" s="10" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="293" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
@@ -9301,17 +10221,21 @@
       <c r="C293" s="19">
         <v>-26.82</v>
       </c>
-      <c r="D293" s="12"/>
+      <c r="D293" s="12" t="s">
+        <v>510</v>
+      </c>
       <c r="E293" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F293" s="18">
         <v>291</v>
       </c>
-      <c r="G293" s="35">
+      <c r="G293" s="32">
         <v>-11.15</v>
       </c>
-      <c r="H293" s="12"/>
+      <c r="H293" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="294" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="9" t="s">
@@ -9323,17 +10247,21 @@
       <c r="C294" s="17">
         <v>-26.885999999999999</v>
       </c>
-      <c r="D294" s="10"/>
+      <c r="D294" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="E294" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F294" s="16">
         <v>292</v>
       </c>
-      <c r="G294" s="34">
+      <c r="G294" s="31">
         <v>-11.396000000000001</v>
       </c>
-      <c r="H294" s="10"/>
+      <c r="H294" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="295" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="2" t="s">
@@ -9345,17 +10273,21 @@
       <c r="C295" s="19">
         <v>-27.173999999999999</v>
       </c>
-      <c r="D295" s="12"/>
+      <c r="D295" s="12" t="s">
+        <v>534</v>
+      </c>
       <c r="E295" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F295" s="18">
         <v>293</v>
       </c>
-      <c r="G295" s="35">
+      <c r="G295" s="32">
         <v>-11.872999999999999</v>
       </c>
-      <c r="H295" s="12"/>
+      <c r="H295" s="12" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="296" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="20" t="s">
@@ -9364,20 +10296,24 @@
       <c r="B296" s="21">
         <v>294</v>
       </c>
-      <c r="C296" s="36">
+      <c r="C296" s="33">
         <v>-27.443999999999999</v>
       </c>
-      <c r="D296" s="22"/>
+      <c r="D296" s="22" t="s">
+        <v>440</v>
+      </c>
       <c r="E296" s="23" t="s">
         <v>227</v>
       </c>
       <c r="F296" s="21">
         <v>294</v>
       </c>
-      <c r="G296" s="37">
+      <c r="G296" s="34">
         <v>-11.938000000000001</v>
       </c>
-      <c r="H296" s="22"/>
+      <c r="H296" s="22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="297" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
@@ -9389,17 +10325,21 @@
       <c r="C297" s="19">
         <v>-28.103999999999999</v>
       </c>
-      <c r="D297" s="12"/>
+      <c r="D297" s="12" t="s">
+        <v>532</v>
+      </c>
       <c r="E297" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F297" s="18">
         <v>295</v>
       </c>
-      <c r="G297" s="35">
+      <c r="G297" s="32">
         <v>-12.157</v>
       </c>
-      <c r="H297" s="12"/>
+      <c r="H297" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="298" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="9" t="s">
@@ -9411,17 +10351,21 @@
       <c r="C298" s="17">
         <v>-29.497</v>
       </c>
-      <c r="D298" s="10"/>
+      <c r="D298" s="10" t="s">
+        <v>423</v>
+      </c>
       <c r="E298" s="11" t="s">
         <v>225</v>
       </c>
       <c r="F298" s="16">
         <v>296</v>
       </c>
-      <c r="G298" s="34">
+      <c r="G298" s="31">
         <v>-12.177</v>
       </c>
-      <c r="H298" s="10"/>
+      <c r="H298" s="10" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="299" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
@@ -9433,17 +10377,21 @@
       <c r="C299" s="19">
         <v>-30.042000000000002</v>
       </c>
-      <c r="D299" s="12"/>
+      <c r="D299" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="E299" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F299" s="18">
         <v>297</v>
       </c>
-      <c r="G299" s="35">
+      <c r="G299" s="32">
         <v>-12.209</v>
       </c>
-      <c r="H299" s="12"/>
+      <c r="H299" s="12" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="300" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="9" t="s">
@@ -9455,17 +10403,21 @@
       <c r="C300" s="17">
         <v>-30.113</v>
       </c>
-      <c r="D300" s="10"/>
+      <c r="D300" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="E300" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F300" s="16">
         <v>298</v>
       </c>
-      <c r="G300" s="34">
+      <c r="G300" s="31">
         <v>-12.337</v>
       </c>
-      <c r="H300" s="10"/>
+      <c r="H300" s="10" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="301" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="2" t="s">
@@ -9477,17 +10429,21 @@
       <c r="C301" s="19">
         <v>-30.452000000000002</v>
       </c>
-      <c r="D301" s="12"/>
+      <c r="D301" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="E301" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F301" s="18">
         <v>299</v>
       </c>
-      <c r="G301" s="35">
+      <c r="G301" s="32">
         <v>-12.365</v>
       </c>
-      <c r="H301" s="12"/>
+      <c r="H301" s="12" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="302" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="9" t="s">
@@ -9499,17 +10455,21 @@
       <c r="C302" s="17">
         <v>-30.606999999999999</v>
       </c>
-      <c r="D302" s="10"/>
+      <c r="D302" s="10" t="s">
+        <v>533</v>
+      </c>
       <c r="E302" s="11" t="s">
         <v>223</v>
       </c>
       <c r="F302" s="16">
         <v>300</v>
       </c>
-      <c r="G302" s="34">
+      <c r="G302" s="31">
         <v>-13.016999999999999</v>
       </c>
-      <c r="H302" s="10"/>
+      <c r="H302" s="10" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="303" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
@@ -9521,17 +10481,21 @@
       <c r="C303" s="19">
         <v>-31.73</v>
       </c>
-      <c r="D303" s="12"/>
+      <c r="D303" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="E303" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F303" s="18">
         <v>301</v>
       </c>
-      <c r="G303" s="35">
+      <c r="G303" s="32">
         <v>-13.433</v>
       </c>
-      <c r="H303" s="12"/>
+      <c r="H303" s="12" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="304" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="9" t="s">
@@ -9543,17 +10507,21 @@
       <c r="C304" s="17">
         <v>-32.613999999999997</v>
       </c>
-      <c r="D304" s="10"/>
+      <c r="D304" s="10" t="s">
+        <v>531</v>
+      </c>
       <c r="E304" s="11" t="s">
         <v>230</v>
       </c>
       <c r="F304" s="16">
         <v>302</v>
       </c>
-      <c r="G304" s="34">
+      <c r="G304" s="31">
         <v>-13.513</v>
       </c>
-      <c r="H304" s="10"/>
+      <c r="H304" s="10" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="305" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
@@ -9565,17 +10533,21 @@
       <c r="C305" s="19">
         <v>-32.840000000000003</v>
       </c>
-      <c r="D305" s="12"/>
+      <c r="D305" s="12" t="s">
+        <v>526</v>
+      </c>
       <c r="E305" s="1" t="s">
         <v>234</v>
       </c>
       <c r="F305" s="18">
         <v>303</v>
       </c>
-      <c r="G305" s="35">
+      <c r="G305" s="32">
         <v>-13.583</v>
       </c>
-      <c r="H305" s="12"/>
+      <c r="H305" s="12" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="306" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="9" t="s">
@@ -9587,17 +10559,21 @@
       <c r="C306" s="17">
         <v>-34.103000000000002</v>
       </c>
-      <c r="D306" s="10"/>
+      <c r="D306" s="10" t="s">
+        <v>527</v>
+      </c>
       <c r="E306" s="11" t="s">
         <v>354</v>
       </c>
       <c r="F306" s="16">
         <v>304</v>
       </c>
-      <c r="G306" s="34">
+      <c r="G306" s="31">
         <v>-14.923</v>
       </c>
-      <c r="H306" s="10"/>
+      <c r="H306" s="10" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="307" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
@@ -9609,17 +10585,21 @@
       <c r="C307" s="19">
         <v>-34.779000000000003</v>
       </c>
-      <c r="D307" s="12"/>
+      <c r="D307" s="12" t="s">
+        <v>529</v>
+      </c>
       <c r="E307" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F307" s="18">
         <v>305</v>
       </c>
-      <c r="G307" s="35">
+      <c r="G307" s="32">
         <v>-15.275</v>
       </c>
-      <c r="H307" s="12"/>
+      <c r="H307" s="12" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="308" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="9" t="s">
@@ -9631,17 +10611,21 @@
       <c r="C308" s="17">
         <v>-36.204999999999998</v>
       </c>
-      <c r="D308" s="10"/>
+      <c r="D308" s="10" t="s">
+        <v>528</v>
+      </c>
       <c r="E308" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F308" s="16">
         <v>306</v>
       </c>
-      <c r="G308" s="34">
+      <c r="G308" s="31">
         <v>-16.181999999999999</v>
       </c>
-      <c r="H308" s="10"/>
+      <c r="H308" s="10" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="309" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
@@ -9653,17 +10637,21 @@
       <c r="C309" s="19">
         <v>-36.219000000000001</v>
       </c>
-      <c r="D309" s="12"/>
+      <c r="D309" s="12" t="s">
+        <v>525</v>
+      </c>
       <c r="E309" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F309" s="18">
         <v>307</v>
       </c>
-      <c r="G309" s="35">
+      <c r="G309" s="32">
         <v>-16.59</v>
       </c>
-      <c r="H309" s="12"/>
+      <c r="H309" s="12" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="310" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="9" t="s">
@@ -9675,17 +10663,21 @@
       <c r="C310" s="17">
         <v>-37.420999999999999</v>
       </c>
-      <c r="D310" s="10"/>
+      <c r="D310" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="E310" s="11" t="s">
         <v>355</v>
       </c>
       <c r="F310" s="16">
         <v>308</v>
       </c>
-      <c r="G310" s="34">
+      <c r="G310" s="31">
         <v>-17.574999999999999</v>
       </c>
-      <c r="H310" s="10"/>
+      <c r="H310" s="10" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="311" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="2" t="s">
@@ -9697,17 +10689,21 @@
       <c r="C311" s="19">
         <v>-37.625999999999998</v>
       </c>
-      <c r="D311" s="12"/>
+      <c r="D311" s="12" t="s">
+        <v>523</v>
+      </c>
       <c r="E311" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F311" s="18">
         <v>309</v>
       </c>
-      <c r="G311" s="35">
+      <c r="G311" s="32">
         <v>-18.986999999999998</v>
       </c>
-      <c r="H311" s="12"/>
+      <c r="H311" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="312" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="9" t="s">
@@ -9719,17 +10715,21 @@
       <c r="C312" s="17">
         <v>-37.692999999999998</v>
       </c>
-      <c r="D312" s="10"/>
+      <c r="D312" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="E312" s="11" t="s">
         <v>241</v>
       </c>
       <c r="F312" s="16">
         <v>310</v>
       </c>
-      <c r="G312" s="34">
+      <c r="G312" s="31">
         <v>-19.100000000000001</v>
       </c>
-      <c r="H312" s="10"/>
+      <c r="H312" s="10" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="313" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2" t="s">
@@ -9741,17 +10741,21 @@
       <c r="C313" s="19">
         <v>-39.808999999999997</v>
       </c>
-      <c r="D313" s="12"/>
+      <c r="D313" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="E313" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F313" s="18">
         <v>311</v>
       </c>
-      <c r="G313" s="35">
+      <c r="G313" s="32">
         <v>-19.234000000000002</v>
       </c>
-      <c r="H313" s="12"/>
+      <c r="H313" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="314" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="9" t="s">
@@ -9763,17 +10767,21 @@
       <c r="C314" s="17">
         <v>-46.415999999999997</v>
       </c>
-      <c r="D314" s="10"/>
+      <c r="D314" s="10" t="s">
+        <v>442</v>
+      </c>
       <c r="E314" s="11" t="s">
         <v>245</v>
       </c>
       <c r="F314" s="16">
         <v>312</v>
       </c>
-      <c r="G314" s="34">
+      <c r="G314" s="31">
         <v>-19.800999999999998</v>
       </c>
-      <c r="H314" s="10"/>
+      <c r="H314" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="315" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="2" t="s">
@@ -9785,17 +10793,21 @@
       <c r="C315" s="19">
         <v>-47.345999999999997</v>
       </c>
-      <c r="D315" s="12"/>
+      <c r="D315" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E315" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F315" s="18">
         <v>313</v>
       </c>
-      <c r="G315" s="35">
+      <c r="G315" s="32">
         <v>-20.271999999999998</v>
       </c>
-      <c r="H315" s="12"/>
+      <c r="H315" s="12" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="316" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="9" t="s">
@@ -9807,17 +10819,21 @@
       <c r="C316" s="17">
         <v>-47.72</v>
       </c>
-      <c r="D316" s="10"/>
+      <c r="D316" s="10" t="s">
+        <v>501</v>
+      </c>
       <c r="E316" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F316" s="16">
         <v>314</v>
       </c>
-      <c r="G316" s="34">
+      <c r="G316" s="31">
         <v>-21.135000000000002</v>
       </c>
-      <c r="H316" s="10"/>
+      <c r="H316" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="317" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
@@ -9829,17 +10845,21 @@
       <c r="C317" s="19">
         <v>-49.481999999999999</v>
       </c>
-      <c r="D317" s="12"/>
+      <c r="D317" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E317" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F317" s="18">
         <v>315</v>
       </c>
-      <c r="G317" s="35">
+      <c r="G317" s="32">
         <v>-21.803999999999998</v>
       </c>
-      <c r="H317" s="12"/>
+      <c r="H317" s="12" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="318" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="9" t="s">
@@ -9851,17 +10871,21 @@
       <c r="C318" s="17">
         <v>-51.826999999999998</v>
       </c>
-      <c r="D318" s="10"/>
+      <c r="D318" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="E318" s="11" t="s">
         <v>237</v>
       </c>
       <c r="F318" s="16">
         <v>316</v>
       </c>
-      <c r="G318" s="34">
+      <c r="G318" s="31">
         <v>-22.52</v>
       </c>
-      <c r="H318" s="10"/>
+      <c r="H318" s="10" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="319" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
@@ -9873,17 +10897,21 @@
       <c r="C319" s="19">
         <v>-52.207000000000001</v>
       </c>
-      <c r="D319" s="12"/>
+      <c r="D319" s="12" t="s">
+        <v>466</v>
+      </c>
       <c r="E319" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F319" s="18">
         <v>317</v>
       </c>
-      <c r="G319" s="35">
+      <c r="G319" s="32">
         <v>-23.885000000000002</v>
       </c>
-      <c r="H319" s="12"/>
+      <c r="H319" s="12" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="320" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="9" t="s">
@@ -9895,17 +10923,21 @@
       <c r="C320" s="17">
         <v>-53.819000000000003</v>
       </c>
-      <c r="D320" s="10"/>
+      <c r="D320" s="10" t="s">
+        <v>524</v>
+      </c>
       <c r="E320" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F320" s="16">
         <v>318</v>
       </c>
-      <c r="G320" s="34">
+      <c r="G320" s="31">
         <v>-24.039000000000001</v>
       </c>
-      <c r="H320" s="10"/>
+      <c r="H320" s="10" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="321" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
@@ -9917,17 +10949,21 @@
       <c r="C321" s="19">
         <v>-53.887</v>
       </c>
-      <c r="D321" s="12"/>
+      <c r="D321" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="E321" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F321" s="18">
         <v>319</v>
       </c>
-      <c r="G321" s="35">
+      <c r="G321" s="32">
         <v>-24.524999999999999</v>
       </c>
-      <c r="H321" s="12"/>
+      <c r="H321" s="12" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="322" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="9" t="s">
@@ -9939,17 +10975,21 @@
       <c r="C322" s="17">
         <v>-55.808</v>
       </c>
-      <c r="D322" s="10"/>
+      <c r="D322" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="E322" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F322" s="16">
         <v>320</v>
       </c>
-      <c r="G322" s="34">
+      <c r="G322" s="31">
         <v>-25.395</v>
       </c>
-      <c r="H322" s="10"/>
+      <c r="H322" s="10" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="323" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
@@ -9961,17 +11001,21 @@
       <c r="C323" s="19">
         <v>-58.683</v>
       </c>
-      <c r="D323" s="12"/>
+      <c r="D323" s="12" t="s">
+        <v>521</v>
+      </c>
       <c r="E323" s="1" t="s">
         <v>250</v>
       </c>
       <c r="F323" s="18">
         <v>321</v>
       </c>
-      <c r="G323" s="35">
+      <c r="G323" s="32">
         <v>-25.565000000000001</v>
       </c>
-      <c r="H323" s="12"/>
+      <c r="H323" s="12" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="324" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="9" t="s">
@@ -9983,17 +11027,21 @@
       <c r="C324" s="17">
         <v>-58.777999999999999</v>
       </c>
-      <c r="D324" s="10"/>
+      <c r="D324" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="E324" s="11" t="s">
         <v>251</v>
       </c>
       <c r="F324" s="16">
         <v>322</v>
       </c>
-      <c r="G324" s="34">
+      <c r="G324" s="31">
         <v>-25.648</v>
       </c>
-      <c r="H324" s="10"/>
+      <c r="H324" s="10" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="325" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="2" t="s">
@@ -10005,17 +11053,21 @@
       <c r="C325" s="19">
         <v>-61.777999999999999</v>
       </c>
-      <c r="D325" s="12"/>
+      <c r="D325" s="12" t="s">
+        <v>514</v>
+      </c>
       <c r="E325" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F325" s="18">
         <v>323</v>
       </c>
-      <c r="G325" s="35">
+      <c r="G325" s="32">
         <v>-26.003</v>
       </c>
-      <c r="H325" s="12"/>
+      <c r="H325" s="12" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="326" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="9" t="s">
@@ -10027,17 +11079,21 @@
       <c r="C326" s="17">
         <v>-63.908000000000001</v>
       </c>
-      <c r="D326" s="10"/>
+      <c r="D326" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="E326" s="11" t="s">
         <v>253</v>
       </c>
       <c r="F326" s="16">
         <v>324</v>
       </c>
-      <c r="G326" s="34">
+      <c r="G326" s="31">
         <v>-28.809000000000001</v>
       </c>
-      <c r="H326" s="10"/>
+      <c r="H326" s="10" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="327" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="2" t="s">
@@ -10049,17 +11105,21 @@
       <c r="C327" s="19">
         <v>-64.477000000000004</v>
       </c>
-      <c r="D327" s="12"/>
+      <c r="D327" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E327" s="1" t="s">
         <v>356</v>
       </c>
       <c r="F327" s="18">
         <v>325</v>
       </c>
-      <c r="G327" s="35">
+      <c r="G327" s="32">
         <v>-29.027000000000001</v>
       </c>
-      <c r="H327" s="12"/>
+      <c r="H327" s="12" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="328" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="9" t="s">
@@ -10071,17 +11131,21 @@
       <c r="C328" s="17">
         <v>-64.659000000000006</v>
       </c>
-      <c r="D328" s="10"/>
+      <c r="D328" s="10" t="s">
+        <v>421</v>
+      </c>
       <c r="E328" s="11" t="s">
         <v>357</v>
       </c>
       <c r="F328" s="16">
         <v>326</v>
       </c>
-      <c r="G328" s="34">
+      <c r="G328" s="31">
         <v>-29.594000000000001</v>
       </c>
-      <c r="H328" s="10"/>
+      <c r="H328" s="10" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="329" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
@@ -10093,17 +11157,21 @@
       <c r="C329" s="19">
         <v>-67.096000000000004</v>
       </c>
-      <c r="D329" s="12"/>
+      <c r="D329" s="12" t="s">
+        <v>520</v>
+      </c>
       <c r="E329" s="1" t="s">
         <v>358</v>
       </c>
       <c r="F329" s="18">
         <v>327</v>
       </c>
-      <c r="G329" s="35">
+      <c r="G329" s="32">
         <v>-29.655000000000001</v>
       </c>
-      <c r="H329" s="12"/>
+      <c r="H329" s="12" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="330" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="9" t="s">
@@ -10115,17 +11183,21 @@
       <c r="C330" s="17">
         <v>-68.372</v>
       </c>
-      <c r="D330" s="10"/>
+      <c r="D330" s="10" t="s">
+        <v>512</v>
+      </c>
       <c r="E330" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F330" s="16">
         <v>328</v>
       </c>
-      <c r="G330" s="34">
+      <c r="G330" s="31">
         <v>-29.997</v>
       </c>
-      <c r="H330" s="10"/>
+      <c r="H330" s="10" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="331" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="2" t="s">
@@ -10137,17 +11209,21 @@
       <c r="C331" s="19">
         <v>-69.31</v>
       </c>
-      <c r="D331" s="12"/>
+      <c r="D331" s="12" t="s">
+        <v>513</v>
+      </c>
       <c r="E331" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F331" s="18">
         <v>329</v>
       </c>
-      <c r="G331" s="35">
+      <c r="G331" s="32">
         <v>-30.574999999999999</v>
       </c>
-      <c r="H331" s="12"/>
+      <c r="H331" s="12" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="332" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="9" t="s">
@@ -10159,17 +11235,21 @@
       <c r="C332" s="17">
         <v>-69.772999999999996</v>
       </c>
-      <c r="D332" s="10"/>
+      <c r="D332" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="E332" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F332" s="16">
         <v>330</v>
       </c>
-      <c r="G332" s="34">
+      <c r="G332" s="31">
         <v>-31.494</v>
       </c>
-      <c r="H332" s="10"/>
+      <c r="H332" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="333" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
@@ -10181,17 +11261,21 @@
       <c r="C333" s="19">
         <v>-71.418000000000006</v>
       </c>
-      <c r="D333" s="12"/>
+      <c r="D333" s="12" t="s">
+        <v>437</v>
+      </c>
       <c r="E333" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F333" s="18">
         <v>331</v>
       </c>
-      <c r="G333" s="35">
+      <c r="G333" s="32">
         <v>-33.186999999999998</v>
       </c>
-      <c r="H333" s="12"/>
+      <c r="H333" s="12" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="334" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="9" t="s">
@@ -10203,17 +11287,21 @@
       <c r="C334" s="17">
         <v>-74.600999999999999</v>
       </c>
-      <c r="D334" s="10"/>
+      <c r="D334" s="10" t="s">
+        <v>510</v>
+      </c>
       <c r="E334" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F334" s="16">
         <v>332</v>
       </c>
-      <c r="G334" s="34">
+      <c r="G334" s="31">
         <v>-34.889000000000003</v>
       </c>
-      <c r="H334" s="10"/>
+      <c r="H334" s="10" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="335" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
@@ -10225,21 +11313,25 @@
       <c r="C335" s="19">
         <v>-85.474000000000004</v>
       </c>
-      <c r="D335" s="12"/>
+      <c r="D335" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E335" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F335" s="18">
         <v>333</v>
       </c>
-      <c r="G335" s="35">
+      <c r="G335" s="32">
         <v>-37.619999999999997</v>
       </c>
-      <c r="H335" s="12"/>
+      <c r="H335" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="336" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B336" s="16">
         <v>334</v>
@@ -10247,21 +11339,25 @@
       <c r="C336" s="17">
         <v>-86.501999999999995</v>
       </c>
-      <c r="D336" s="10"/>
+      <c r="D336" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="E336" s="11" t="s">
         <v>261</v>
       </c>
       <c r="F336" s="16">
         <v>334</v>
       </c>
-      <c r="G336" s="34">
+      <c r="G336" s="31">
         <v>-38.451000000000001</v>
       </c>
-      <c r="H336" s="10"/>
+      <c r="H336" s="10" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="337" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B337" s="18">
         <v>335</v>
@@ -10269,17 +11365,21 @@
       <c r="C337" s="19">
         <v>-90.528999999999996</v>
       </c>
-      <c r="D337" s="12"/>
+      <c r="D337" s="12" t="s">
+        <v>511</v>
+      </c>
       <c r="E337" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F337" s="18">
         <v>335</v>
       </c>
-      <c r="G337" s="35">
+      <c r="G337" s="32">
         <v>-39.902000000000001</v>
       </c>
-      <c r="H337" s="12"/>
+      <c r="H337" s="12" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="338" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="20" t="s">
@@ -10288,20 +11388,24 @@
       <c r="B338" s="21">
         <v>336</v>
       </c>
-      <c r="C338" s="36">
+      <c r="C338" s="33">
         <v>-92.888000000000005</v>
       </c>
-      <c r="D338" s="22"/>
+      <c r="D338" s="22" t="s">
+        <v>472</v>
+      </c>
       <c r="E338" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F338" s="21">
         <v>336</v>
       </c>
-      <c r="G338" s="37">
+      <c r="G338" s="34">
         <v>-40.078000000000003</v>
       </c>
-      <c r="H338" s="22"/>
+      <c r="H338" s="22" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="339" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
@@ -10313,17 +11417,21 @@
       <c r="C339" s="19">
         <v>-93.567999999999998</v>
       </c>
-      <c r="D339" s="12"/>
+      <c r="D339" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="E339" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F339" s="18">
         <v>337</v>
       </c>
-      <c r="G339" s="35">
+      <c r="G339" s="32">
         <v>-40.158999999999999</v>
       </c>
-      <c r="H339" s="12"/>
+      <c r="H339" s="12" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="340" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
@@ -10335,17 +11443,21 @@
       <c r="C340" s="17">
         <v>-96.570999999999998</v>
       </c>
-      <c r="D340" s="10"/>
+      <c r="D340" s="10" t="s">
+        <v>471</v>
+      </c>
       <c r="E340" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F340" s="16">
         <v>338</v>
       </c>
-      <c r="G340" s="34">
+      <c r="G340" s="31">
         <v>-40.42</v>
       </c>
-      <c r="H340" s="10"/>
+      <c r="H340" s="10" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="341" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="2" t="s">
@@ -10357,17 +11469,21 @@
       <c r="C341" s="19">
         <v>-98.353999999999999</v>
       </c>
-      <c r="D341" s="12"/>
+      <c r="D341" s="12" t="s">
+        <v>494</v>
+      </c>
       <c r="E341" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F341" s="18">
         <v>339</v>
       </c>
-      <c r="G341" s="35">
+      <c r="G341" s="32">
         <v>-44.344999999999999</v>
       </c>
-      <c r="H341" s="12"/>
+      <c r="H341" s="12" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="342" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="9" t="s">
@@ -10379,17 +11495,21 @@
       <c r="C342" s="17">
         <v>-106.203</v>
       </c>
-      <c r="D342" s="10"/>
+      <c r="D342" s="10" t="s">
+        <v>496</v>
+      </c>
       <c r="E342" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F342" s="16">
         <v>340</v>
       </c>
-      <c r="G342" s="34">
+      <c r="G342" s="31">
         <v>-44.552</v>
       </c>
-      <c r="H342" s="10"/>
+      <c r="H342" s="10" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="343" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2" t="s">
@@ -10401,17 +11521,21 @@
       <c r="C343" s="19">
         <v>-109.249</v>
       </c>
-      <c r="D343" s="12"/>
+      <c r="D343" s="12" t="s">
+        <v>505</v>
+      </c>
       <c r="E343" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F343" s="18">
         <v>341</v>
       </c>
-      <c r="G343" s="35">
+      <c r="G343" s="32">
         <v>-45.529000000000003</v>
       </c>
-      <c r="H343" s="12"/>
+      <c r="H343" s="12" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="344" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="9" t="s">
@@ -10423,17 +11547,21 @@
       <c r="C344" s="17">
         <v>-111.104</v>
       </c>
-      <c r="D344" s="10"/>
+      <c r="D344" s="10" t="s">
+        <v>494</v>
+      </c>
       <c r="E344" s="11" t="s">
         <v>257</v>
       </c>
       <c r="F344" s="16">
         <v>342</v>
       </c>
-      <c r="G344" s="34">
+      <c r="G344" s="31">
         <v>-46.156999999999996</v>
       </c>
-      <c r="H344" s="10"/>
+      <c r="H344" s="10" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="345" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="2" t="s">
@@ -10445,17 +11573,21 @@
       <c r="C345" s="19">
         <v>-111.703</v>
       </c>
-      <c r="D345" s="12"/>
+      <c r="D345" s="12" t="s">
+        <v>504</v>
+      </c>
       <c r="E345" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F345" s="18">
         <v>343</v>
       </c>
-      <c r="G345" s="35">
+      <c r="G345" s="32">
         <v>-49.701999999999998</v>
       </c>
-      <c r="H345" s="12"/>
+      <c r="H345" s="12" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="346" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="9" t="s">
@@ -10467,17 +11599,21 @@
       <c r="C346" s="17">
         <v>-114.28700000000001</v>
       </c>
-      <c r="D346" s="10"/>
+      <c r="D346" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="E346" s="11" t="s">
         <v>268</v>
       </c>
       <c r="F346" s="16">
         <v>344</v>
       </c>
-      <c r="G346" s="34">
+      <c r="G346" s="31">
         <v>-52.914000000000001</v>
       </c>
-      <c r="H346" s="10"/>
+      <c r="H346" s="10" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="347" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
@@ -10489,17 +11625,21 @@
       <c r="C347" s="19">
         <v>-119.152</v>
       </c>
-      <c r="D347" s="12"/>
+      <c r="D347" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="E347" s="1" t="s">
         <v>359</v>
       </c>
       <c r="F347" s="18">
         <v>345</v>
       </c>
-      <c r="G347" s="35">
+      <c r="G347" s="32">
         <v>-53.156999999999996</v>
       </c>
-      <c r="H347" s="12"/>
+      <c r="H347" s="12" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="348" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="9" t="s">
@@ -10511,17 +11651,21 @@
       <c r="C348" s="17">
         <v>-120.369</v>
       </c>
-      <c r="D348" s="10"/>
+      <c r="D348" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="E348" s="11" t="s">
         <v>270</v>
       </c>
       <c r="F348" s="16">
         <v>346</v>
       </c>
-      <c r="G348" s="34">
+      <c r="G348" s="31">
         <v>-54.930999999999997</v>
       </c>
-      <c r="H348" s="10"/>
+      <c r="H348" s="10" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="349" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
@@ -10533,17 +11677,21 @@
       <c r="C349" s="19">
         <v>-124.535</v>
       </c>
-      <c r="D349" s="12"/>
+      <c r="D349" s="12" t="s">
+        <v>504</v>
+      </c>
       <c r="E349" s="1" t="s">
         <v>265</v>
       </c>
       <c r="F349" s="18">
         <v>347</v>
       </c>
-      <c r="G349" s="35">
+      <c r="G349" s="32">
         <v>-54.948999999999998</v>
       </c>
-      <c r="H349" s="12"/>
+      <c r="H349" s="12" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="350" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="9" t="s">
@@ -10555,17 +11703,21 @@
       <c r="C350" s="17">
         <v>-130.81899999999999</v>
       </c>
-      <c r="D350" s="10"/>
+      <c r="D350" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="E350" s="11" t="s">
         <v>269</v>
       </c>
       <c r="F350" s="16">
         <v>348</v>
       </c>
-      <c r="G350" s="34">
+      <c r="G350" s="31">
         <v>-55.49</v>
       </c>
-      <c r="H350" s="10"/>
+      <c r="H350" s="10" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="351" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
@@ -10577,17 +11729,21 @@
       <c r="C351" s="19">
         <v>-133.16999999999999</v>
       </c>
-      <c r="D351" s="12"/>
+      <c r="D351" s="12" t="s">
+        <v>502</v>
+      </c>
       <c r="E351" s="1" t="s">
         <v>272</v>
       </c>
       <c r="F351" s="18">
         <v>349</v>
       </c>
-      <c r="G351" s="35">
+      <c r="G351" s="32">
         <v>-56.728000000000002</v>
       </c>
-      <c r="H351" s="12"/>
+      <c r="H351" s="12" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="352" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="9" t="s">
@@ -10599,17 +11755,21 @@
       <c r="C352" s="17">
         <v>-142.6</v>
       </c>
-      <c r="D352" s="10"/>
+      <c r="D352" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="E352" s="11" t="s">
         <v>360</v>
       </c>
       <c r="F352" s="16">
         <v>350</v>
       </c>
-      <c r="G352" s="34">
+      <c r="G352" s="31">
         <v>-62.158999999999999</v>
       </c>
-      <c r="H352" s="10"/>
+      <c r="H352" s="10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="353" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
@@ -10621,21 +11781,25 @@
       <c r="C353" s="19">
         <v>-142.91300000000001</v>
       </c>
-      <c r="D353" s="12"/>
+      <c r="D353" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E353" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F353" s="18">
         <v>351</v>
       </c>
-      <c r="G353" s="35">
+      <c r="G353" s="32">
         <v>-64.070999999999998</v>
       </c>
-      <c r="H353" s="12"/>
+      <c r="H353" s="12" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="354" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B354" s="16">
         <v>352</v>
@@ -10643,17 +11807,21 @@
       <c r="C354" s="17">
         <v>-157.072</v>
       </c>
-      <c r="D354" s="10"/>
+      <c r="D354" s="10" t="s">
+        <v>500</v>
+      </c>
       <c r="E354" s="11" t="s">
         <v>361</v>
       </c>
       <c r="F354" s="16">
         <v>352</v>
       </c>
-      <c r="G354" s="34">
+      <c r="G354" s="31">
         <v>-66.771000000000001</v>
       </c>
-      <c r="H354" s="10"/>
+      <c r="H354" s="10" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="355" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="2" t="s">
@@ -10665,17 +11833,21 @@
       <c r="C355" s="19">
         <v>-158.45699999999999</v>
       </c>
-      <c r="D355" s="12"/>
+      <c r="D355" s="12" t="s">
+        <v>370</v>
+      </c>
       <c r="E355" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F355" s="18">
         <v>353</v>
       </c>
-      <c r="G355" s="35">
+      <c r="G355" s="32">
         <v>-67.093000000000004</v>
       </c>
-      <c r="H355" s="12"/>
+      <c r="H355" s="12" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="356" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="9" t="s">
@@ -10687,17 +11859,21 @@
       <c r="C356" s="17">
         <v>-160.565</v>
       </c>
-      <c r="D356" s="10"/>
+      <c r="D356" s="10" t="s">
+        <v>498</v>
+      </c>
       <c r="E356" s="11" t="s">
         <v>362</v>
       </c>
       <c r="F356" s="16">
         <v>354</v>
       </c>
-      <c r="G356" s="34">
+      <c r="G356" s="31">
         <v>-70.174999999999997</v>
       </c>
-      <c r="H356" s="10"/>
+      <c r="H356" s="10" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="357" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="2" t="s">
@@ -10709,17 +11885,21 @@
       <c r="C357" s="19">
         <v>-174.476</v>
       </c>
-      <c r="D357" s="12"/>
+      <c r="D357" s="12" t="s">
+        <v>496</v>
+      </c>
       <c r="E357" s="1" t="s">
         <v>271</v>
       </c>
       <c r="F357" s="18">
         <v>355</v>
       </c>
-      <c r="G357" s="35">
+      <c r="G357" s="32">
         <v>-73.209000000000003</v>
       </c>
-      <c r="H357" s="12"/>
+      <c r="H357" s="12" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="358" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="9" t="s">
@@ -10731,17 +11911,21 @@
       <c r="C358" s="17">
         <v>-175.53200000000001</v>
       </c>
-      <c r="D358" s="10"/>
+      <c r="D358" s="10" t="s">
+        <v>497</v>
+      </c>
       <c r="E358" s="11" t="s">
         <v>274</v>
       </c>
       <c r="F358" s="16">
         <v>356</v>
       </c>
-      <c r="G358" s="34">
+      <c r="G358" s="31">
         <v>-73.233999999999995</v>
       </c>
-      <c r="H358" s="10"/>
+      <c r="H358" s="10" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="359" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2" t="s">
@@ -10753,17 +11937,21 @@
       <c r="C359" s="19">
         <v>-183.44200000000001</v>
       </c>
-      <c r="D359" s="12"/>
+      <c r="D359" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="E359" s="1" t="s">
         <v>363</v>
       </c>
       <c r="F359" s="18">
         <v>357</v>
       </c>
-      <c r="G359" s="35">
+      <c r="G359" s="32">
         <v>-74.427000000000007</v>
       </c>
-      <c r="H359" s="12"/>
+      <c r="H359" s="12" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="360" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="9" t="s">
@@ -10775,17 +11963,21 @@
       <c r="C360" s="17">
         <v>-188.31700000000001</v>
       </c>
-      <c r="D360" s="10"/>
+      <c r="D360" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="E360" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F360" s="16">
         <v>358</v>
       </c>
-      <c r="G360" s="34">
+      <c r="G360" s="31">
         <v>-80.295000000000002</v>
       </c>
-      <c r="H360" s="10"/>
+      <c r="H360" s="10" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="361" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="2" t="s">
@@ -10798,7 +11990,7 @@
         <v>-207.41300000000001</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>276</v>
@@ -10806,10 +11998,12 @@
       <c r="F361" s="18">
         <v>359</v>
       </c>
-      <c r="G361" s="35">
+      <c r="G361" s="32">
         <v>-93.807000000000002</v>
       </c>
-      <c r="H361" s="12"/>
+      <c r="H361" s="12" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="362" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="9" t="s">
@@ -10821,17 +12015,21 @@
       <c r="C362" s="17">
         <v>-216.13800000000001</v>
       </c>
-      <c r="D362" s="10"/>
+      <c r="D362" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="E362" s="11" t="s">
         <v>364</v>
       </c>
       <c r="F362" s="16">
         <v>360</v>
       </c>
-      <c r="G362" s="34">
+      <c r="G362" s="31">
         <v>-95.795000000000002</v>
       </c>
-      <c r="H362" s="10"/>
+      <c r="H362" s="10" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="363" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
@@ -10843,17 +12041,21 @@
       <c r="C363" s="19">
         <v>-248.798</v>
       </c>
-      <c r="D363" s="12"/>
+      <c r="D363" s="12" t="s">
+        <v>492</v>
+      </c>
       <c r="E363" s="1" t="s">
         <v>277</v>
       </c>
       <c r="F363" s="18">
         <v>361</v>
       </c>
-      <c r="G363" s="35">
+      <c r="G363" s="32">
         <v>-105.753</v>
       </c>
-      <c r="H363" s="12"/>
+      <c r="H363" s="12" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="364" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="9" t="s">
@@ -10865,15 +12067,20 @@
       <c r="C364" s="17">
         <v>-320.28100000000001</v>
       </c>
-      <c r="D364" s="10"/>
+      <c r="D364" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="E364" s="11" t="s">
         <v>278</v>
       </c>
       <c r="F364" s="16">
         <v>362</v>
       </c>
-      <c r="G364" s="34">
+      <c r="G364" s="31">
         <v>-110.337</v>
+      </c>
+      <c r="H364" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -10886,17 +12093,21 @@
       <c r="C365" s="19">
         <v>-359.17899999999997</v>
       </c>
-      <c r="D365" s="12"/>
+      <c r="D365" s="12" t="s">
+        <v>442</v>
+      </c>
       <c r="E365" s="1" t="s">
         <v>280</v>
       </c>
       <c r="F365" s="18">
         <v>363</v>
       </c>
-      <c r="G365" s="35">
+      <c r="G365" s="32">
         <v>-155.82</v>
       </c>
-      <c r="H365" s="10"/>
+      <c r="H365" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="366" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="9" t="s">
@@ -10909,7 +12120,7 @@
         <v>-386.09800000000001</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E366" s="11" t="s">
         <v>281</v>
@@ -10917,11 +12128,11 @@
       <c r="F366" s="16">
         <v>364</v>
       </c>
-      <c r="G366" s="34">
+      <c r="G366" s="31">
         <v>-159.25299999999999</v>
       </c>
       <c r="H366" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -10935,7 +12146,7 @@
         <v>-410.74599999999998</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>279</v>
@@ -10943,11 +12154,11 @@
       <c r="F367" s="18">
         <v>365</v>
       </c>
-      <c r="G367" s="35">
+      <c r="G367" s="32">
         <v>-170.59299999999999</v>
       </c>
       <c r="H367" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -10961,7 +12172,7 @@
         <v>-442.44600000000003</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E368" s="11" t="s">
         <v>282</v>
@@ -10969,11 +12180,11 @@
       <c r="F368" s="16">
         <v>366</v>
       </c>
-      <c r="G368" s="34">
+      <c r="G368" s="31">
         <v>-174.67500000000001</v>
       </c>
       <c r="H368" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -10987,7 +12198,7 @@
         <v>-464.721</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>283</v>
@@ -10995,11 +12206,11 @@
       <c r="F369" s="18">
         <v>367</v>
       </c>
-      <c r="G369" s="35">
+      <c r="G369" s="32">
         <v>-217.10300000000001</v>
       </c>
       <c r="H369" s="12" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -11013,7 +12224,7 @@
         <v>-573.524</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E370" s="11" t="s">
         <v>284</v>
@@ -11021,11 +12232,11 @@
       <c r="F370" s="16">
         <v>368</v>
       </c>
-      <c r="G370" s="34">
+      <c r="G370" s="31">
         <v>-245.87899999999999</v>
       </c>
       <c r="H370" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -11039,7 +12250,7 @@
         <v>-952.47</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>286</v>
@@ -11047,11 +12258,11 @@
       <c r="F371" s="18">
         <v>369</v>
       </c>
-      <c r="G371" s="35">
+      <c r="G371" s="32">
         <v>-281.84100000000001</v>
       </c>
       <c r="H371" s="12" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.4">
@@ -11061,11 +12272,11 @@
       <c r="B372" s="25">
         <v>370</v>
       </c>
-      <c r="C372" s="38">
+      <c r="C372" s="35">
         <v>-954.08600000000001</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="E372" s="27" t="s">
         <v>285</v>
@@ -11073,11 +12284,11 @@
       <c r="F372" s="25">
         <v>370</v>
       </c>
-      <c r="G372" s="39">
+      <c r="G372" s="36">
         <v>-348.928</v>
       </c>
       <c r="H372" s="26" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
